--- a/DATA/collate_cultivar_data_50_percent/probe_screening/xy_smoothed_dfs.xlsx
+++ b/DATA/collate_cultivar_data_50_percent/probe_screening/xy_smoothed_dfs.xlsx
@@ -2312,7 +2312,7 @@
         <v>173</v>
       </c>
       <c r="C175">
-        <v>0.4379775</v>
+        <v>0.4379776</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2433,7 +2433,7 @@
         <v>184</v>
       </c>
       <c r="C186">
-        <v>0.4525117</v>
+        <v>0.4525118</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2444,7 +2444,7 @@
         <v>185</v>
       </c>
       <c r="C187">
-        <v>0.4533035</v>
+        <v>0.4533036</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2455,7 +2455,7 @@
         <v>186</v>
       </c>
       <c r="C188">
-        <v>0.4540229</v>
+        <v>0.454023</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2466,7 +2466,7 @@
         <v>187</v>
       </c>
       <c r="C189">
-        <v>0.4546734</v>
+        <v>0.4546735</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2477,7 +2477,7 @@
         <v>188</v>
       </c>
       <c r="C190">
-        <v>0.4552582</v>
+        <v>0.4552583</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2488,7 +2488,7 @@
         <v>189</v>
       </c>
       <c r="C191">
-        <v>0.4557805</v>
+        <v>0.4557806</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2499,7 +2499,7 @@
         <v>190</v>
       </c>
       <c r="C192">
-        <v>0.4562432</v>
+        <v>0.4562434</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2510,7 +2510,7 @@
         <v>191</v>
       </c>
       <c r="C193">
-        <v>0.4566494</v>
+        <v>0.4566496</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2521,7 +2521,7 @@
         <v>192</v>
       </c>
       <c r="C194">
-        <v>0.4570019</v>
+        <v>0.4570021</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2532,7 +2532,7 @@
         <v>193</v>
       </c>
       <c r="C195">
-        <v>0.4573033</v>
+        <v>0.4573036</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2543,7 +2543,7 @@
         <v>194</v>
       </c>
       <c r="C196">
-        <v>0.4575562</v>
+        <v>0.4575565</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2554,7 +2554,7 @@
         <v>195</v>
       </c>
       <c r="C197">
-        <v>0.457763</v>
+        <v>0.4577634</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2565,7 +2565,7 @@
         <v>196</v>
       </c>
       <c r="C198">
-        <v>0.457926</v>
+        <v>0.4579264</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2576,7 +2576,7 @@
         <v>197</v>
       </c>
       <c r="C199">
-        <v>0.4580474</v>
+        <v>0.4580478</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2587,7 +2587,7 @@
         <v>198</v>
       </c>
       <c r="C200">
-        <v>0.4581291</v>
+        <v>0.4581296</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>199</v>
       </c>
       <c r="C201">
-        <v>0.4581731</v>
+        <v>0.4581737</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2609,7 +2609,7 @@
         <v>200</v>
       </c>
       <c r="C202">
-        <v>0.4581811</v>
+        <v>0.4581819</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2620,7 +2620,7 @@
         <v>201</v>
       </c>
       <c r="C203">
-        <v>0.4581548</v>
+        <v>0.4581557</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2631,7 +2631,7 @@
         <v>202</v>
       </c>
       <c r="C204">
-        <v>0.4580957</v>
+        <v>0.4580967</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2642,7 +2642,7 @@
         <v>203</v>
       </c>
       <c r="C205">
-        <v>0.4580051</v>
+        <v>0.4580063</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>204</v>
       </c>
       <c r="C206">
-        <v>0.4578842</v>
+        <v>0.4578856</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2664,7 +2664,7 @@
         <v>205</v>
       </c>
       <c r="C207">
-        <v>0.4577343</v>
+        <v>0.4577359</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2675,7 +2675,7 @@
         <v>206</v>
       </c>
       <c r="C208">
-        <v>0.4575562</v>
+        <v>0.4575581</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2686,7 +2686,7 @@
         <v>207</v>
       </c>
       <c r="C209">
-        <v>0.4573508</v>
+        <v>0.457353</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2697,7 +2697,7 @@
         <v>208</v>
       </c>
       <c r="C210">
-        <v>0.457119</v>
+        <v>0.4571214</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2708,7 +2708,7 @@
         <v>209</v>
       </c>
       <c r="C211">
-        <v>0.4568612</v>
+        <v>0.4568641</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>210</v>
       </c>
       <c r="C212">
-        <v>0.4565781</v>
+        <v>0.4565813</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2730,7 +2730,7 @@
         <v>211</v>
       </c>
       <c r="C213">
-        <v>0.45627</v>
+        <v>0.4562737</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2741,7 +2741,7 @@
         <v>212</v>
       </c>
       <c r="C214">
-        <v>0.4559372</v>
+        <v>0.4559414</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2752,7 +2752,7 @@
         <v>213</v>
       </c>
       <c r="C215">
-        <v>0.4555799</v>
+        <v>0.4555848</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>214</v>
       </c>
       <c r="C216">
-        <v>0.4551983</v>
+        <v>0.4552038</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2774,7 +2774,7 @@
         <v>215</v>
       </c>
       <c r="C217">
-        <v>0.4547922</v>
+        <v>0.4547986</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2785,7 +2785,7 @@
         <v>216</v>
       </c>
       <c r="C218">
-        <v>0.4543617</v>
+        <v>0.4543689</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2796,7 +2796,7 @@
         <v>217</v>
       </c>
       <c r="C219">
-        <v>0.4539066</v>
+        <v>0.4539148</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2807,7 +2807,7 @@
         <v>218</v>
       </c>
       <c r="C220">
-        <v>0.4534266</v>
+        <v>0.4534359</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2818,7 +2818,7 @@
         <v>219</v>
       </c>
       <c r="C221">
-        <v>0.4529214</v>
+        <v>0.4529319</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2829,7 +2829,7 @@
         <v>220</v>
       </c>
       <c r="C222">
-        <v>0.4523907</v>
+        <v>0.4524025</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2840,7 +2840,7 @@
         <v>221</v>
       </c>
       <c r="C223">
-        <v>0.4518339</v>
+        <v>0.4518473</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2851,7 +2851,7 @@
         <v>222</v>
       </c>
       <c r="C224">
-        <v>0.4512507</v>
+        <v>0.4512657</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2862,7 +2862,7 @@
         <v>223</v>
       </c>
       <c r="C225">
-        <v>0.4506405</v>
+        <v>0.4506574</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2873,7 +2873,7 @@
         <v>224</v>
       </c>
       <c r="C226">
-        <v>0.4500027</v>
+        <v>0.4500216</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2884,7 +2884,7 @@
         <v>225</v>
       </c>
       <c r="C227">
-        <v>0.4493368</v>
+        <v>0.449358</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2895,7 +2895,7 @@
         <v>226</v>
       </c>
       <c r="C228">
-        <v>0.4486421</v>
+        <v>0.4486659</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2906,7 +2906,7 @@
         <v>227</v>
       </c>
       <c r="C229">
-        <v>0.4479181</v>
+        <v>0.4479446</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2917,7 +2917,7 @@
         <v>228</v>
       </c>
       <c r="C230">
-        <v>0.4471642</v>
+        <v>0.4471938</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2928,7 +2928,7 @@
         <v>229</v>
       </c>
       <c r="C231">
-        <v>0.4463798</v>
+        <v>0.4464127</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2939,7 +2939,7 @@
         <v>230</v>
       </c>
       <c r="C232">
-        <v>0.4455643</v>
+        <v>0.4456008</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2950,7 +2950,7 @@
         <v>231</v>
       </c>
       <c r="C233">
-        <v>0.4447171</v>
+        <v>0.4447576</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2961,7 +2961,7 @@
         <v>232</v>
       </c>
       <c r="C234">
-        <v>0.4438378</v>
+        <v>0.4438826</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>233</v>
       </c>
       <c r="C235">
-        <v>0.4429259</v>
+        <v>0.4429754</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2983,7 +2983,7 @@
         <v>234</v>
       </c>
       <c r="C236">
-        <v>0.441981</v>
+        <v>0.4420356</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2994,7 +2994,7 @@
         <v>235</v>
       </c>
       <c r="C237">
-        <v>0.4410027</v>
+        <v>0.4410628</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3005,7 +3005,7 @@
         <v>236</v>
       </c>
       <c r="C238">
-        <v>0.4399908</v>
+        <v>0.4400568</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3016,7 +3016,7 @@
         <v>237</v>
       </c>
       <c r="C239">
-        <v>0.438945</v>
+        <v>0.4390174</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3027,7 +3027,7 @@
         <v>238</v>
       </c>
       <c r="C240">
-        <v>0.4378652</v>
+        <v>0.4379445</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3038,7 +3038,7 @@
         <v>239</v>
       </c>
       <c r="C241">
-        <v>0.4367513</v>
+        <v>0.4368379</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3049,7 +3049,7 @@
         <v>240</v>
       </c>
       <c r="C242">
-        <v>0.4356033</v>
+        <v>0.4356978</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3060,7 +3060,7 @@
         <v>241</v>
       </c>
       <c r="C243">
-        <v>0.4344214</v>
+        <v>0.4345242</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3071,7 +3071,7 @@
         <v>242</v>
       </c>
       <c r="C244">
-        <v>0.4332056</v>
+        <v>0.4333173</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>243</v>
       </c>
       <c r="C245">
-        <v>0.4319563</v>
+        <v>0.4320774</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3093,7 +3093,7 @@
         <v>244</v>
       </c>
       <c r="C246">
-        <v>0.4306738</v>
+        <v>0.4308048</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3104,7 +3104,7 @@
         <v>245</v>
       </c>
       <c r="C247">
-        <v>0.4293584</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3115,7 +3115,7 @@
         <v>246</v>
       </c>
       <c r="C248">
-        <v>0.4280108</v>
+        <v>0.4281633</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3126,7 +3126,7 @@
         <v>247</v>
       </c>
       <c r="C249">
-        <v>0.4266314</v>
+        <v>0.4267954</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3137,7 +3137,7 @@
         <v>248</v>
       </c>
       <c r="C250">
-        <v>0.4252208</v>
+        <v>0.4253969</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3148,7 +3148,7 @@
         <v>249</v>
       </c>
       <c r="C251">
-        <v>0.4237798</v>
+        <v>0.4239685</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3159,7 +3159,7 @@
         <v>250</v>
       </c>
       <c r="C252">
-        <v>0.4223091</v>
+        <v>0.4225107</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3170,7 +3170,7 @@
         <v>251</v>
       </c>
       <c r="C253">
-        <v>0.4208094</v>
+        <v>0.4210245</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3181,7 +3181,7 @@
         <v>252</v>
       </c>
       <c r="C254">
-        <v>0.4192815</v>
+        <v>0.4195105</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3192,7 +3192,7 @@
         <v>253</v>
       </c>
       <c r="C255">
-        <v>0.4177263</v>
+        <v>0.4179695</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3203,7 +3203,7 @@
         <v>254</v>
       </c>
       <c r="C256">
-        <v>0.4161446</v>
+        <v>0.4164024</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3214,7 +3214,7 @@
         <v>255</v>
       </c>
       <c r="C257">
-        <v>0.4145373</v>
+        <v>0.41481</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3225,7 +3225,7 @@
         <v>256</v>
       </c>
       <c r="C258">
-        <v>0.4129052</v>
+        <v>0.413193</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3236,7 +3236,7 @@
         <v>257</v>
       </c>
       <c r="C259">
-        <v>0.4112491</v>
+        <v>0.4115522</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3247,7 +3247,7 @@
         <v>258</v>
       </c>
       <c r="C260">
-        <v>0.4095699</v>
+        <v>0.4098883</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3258,7 +3258,7 @@
         <v>259</v>
       </c>
       <c r="C261">
-        <v>0.4078683</v>
+        <v>0.4082021</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3269,7 +3269,7 @@
         <v>260</v>
       </c>
       <c r="C262">
-        <v>0.4061451</v>
+        <v>0.4064941</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3280,7 +3280,7 @@
         <v>261</v>
       </c>
       <c r="C263">
-        <v>0.4044009</v>
+        <v>0.4047651</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3291,7 +3291,7 @@
         <v>262</v>
       </c>
       <c r="C264">
-        <v>0.4026364</v>
+        <v>0.4030155</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3302,7 +3302,7 @@
         <v>263</v>
       </c>
       <c r="C265">
-        <v>0.4008521</v>
+        <v>0.4012457</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3313,7 +3313,7 @@
         <v>264</v>
       </c>
       <c r="C266">
-        <v>0.3990485</v>
+        <v>0.3994562</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3324,7 +3324,7 @@
         <v>265</v>
       </c>
       <c r="C267">
-        <v>0.397226</v>
+        <v>0.3976473</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3335,7 +3335,7 @@
         <v>266</v>
       </c>
       <c r="C268">
-        <v>0.3953849</v>
+        <v>0.395819</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3346,7 +3346,7 @@
         <v>267</v>
       </c>
       <c r="C269">
-        <v>0.3935255</v>
+        <v>0.3939715</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3357,7 +3357,7 @@
         <v>268</v>
       </c>
       <c r="C270">
-        <v>0.3916478</v>
+        <v>0.3921049</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3368,7 +3368,7 @@
         <v>269</v>
       </c>
       <c r="C271">
-        <v>0.3897519</v>
+        <v>0.3902189</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3379,7 +3379,7 @@
         <v>270</v>
       </c>
       <c r="C272">
-        <v>0.3878377</v>
+        <v>0.3883134</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3390,7 +3390,7 @@
         <v>271</v>
       </c>
       <c r="C273">
-        <v>0.3859051</v>
+        <v>0.3863879</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>272</v>
       </c>
       <c r="C274">
-        <v>0.3839536</v>
+        <v>0.3844421</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3412,7 +3412,7 @@
         <v>273</v>
       </c>
       <c r="C275">
-        <v>0.3819828</v>
+        <v>0.3824754</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3423,7 +3423,7 @@
         <v>274</v>
       </c>
       <c r="C276">
-        <v>0.3799924</v>
+        <v>0.380487</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3434,7 +3434,7 @@
         <v>275</v>
       </c>
       <c r="C277">
-        <v>0.3779816</v>
+        <v>0.3784762</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3445,7 +3445,7 @@
         <v>276</v>
       </c>
       <c r="C278">
-        <v>0.3759497</v>
+        <v>0.3764421</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3456,7 +3456,7 @@
         <v>277</v>
       </c>
       <c r="C279">
-        <v>0.3738958</v>
+        <v>0.3743836</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3467,7 +3467,7 @@
         <v>278</v>
       </c>
       <c r="C280">
-        <v>0.371819</v>
+        <v>0.3722997</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3478,7 +3478,7 @@
         <v>279</v>
       </c>
       <c r="C281">
-        <v>0.3697183</v>
+        <v>0.3701891</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3489,7 +3489,7 @@
         <v>280</v>
       </c>
       <c r="C282">
-        <v>0.3675924</v>
+        <v>0.3680505</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3500,7 +3500,7 @@
         <v>281</v>
       </c>
       <c r="C283">
-        <v>0.3654402</v>
+        <v>0.3658825</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>282</v>
       </c>
       <c r="C284">
-        <v>0.3632603</v>
+        <v>0.3636835</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3522,7 +3522,7 @@
         <v>283</v>
       </c>
       <c r="C285">
-        <v>0.3610514</v>
+        <v>0.3614521</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3533,7 +3533,7 @@
         <v>284</v>
       </c>
       <c r="C286">
-        <v>0.3588118</v>
+        <v>0.3591866</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3544,7 +3544,7 @@
         <v>285</v>
       </c>
       <c r="C287">
-        <v>0.35654</v>
+        <v>0.3568852</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3555,7 +3555,7 @@
         <v>286</v>
       </c>
       <c r="C288">
-        <v>0.3542345</v>
+        <v>0.3545461</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3566,7 +3566,7 @@
         <v>287</v>
       </c>
       <c r="C289">
-        <v>0.3518935</v>
+        <v>0.3521677</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3577,7 +3577,7 @@
         <v>288</v>
       </c>
       <c r="C290">
-        <v>0.3495152</v>
+        <v>0.3497479</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3588,7 +3588,7 @@
         <v>289</v>
       </c>
       <c r="C291">
-        <v>0.3470979</v>
+        <v>0.347285</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3599,7 +3599,7 @@
         <v>290</v>
       </c>
       <c r="C292">
-        <v>0.3446397</v>
+        <v>0.344777</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3610,7 +3610,7 @@
         <v>291</v>
       </c>
       <c r="C293">
-        <v>0.3421388</v>
+        <v>0.3422219</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>292</v>
       </c>
       <c r="C294">
-        <v>0.3395933</v>
+        <v>0.3396179</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3632,7 +3632,7 @@
         <v>293</v>
       </c>
       <c r="C295">
-        <v>0.3370013</v>
+        <v>0.336963</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3643,7 +3643,7 @@
         <v>294</v>
       </c>
       <c r="C296">
-        <v>0.3343608</v>
+        <v>0.3342553</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3654,7 +3654,7 @@
         <v>295</v>
       </c>
       <c r="C297">
-        <v>0.33167</v>
+        <v>0.331493</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3665,7 +3665,7 @@
         <v>296</v>
       </c>
       <c r="C298">
-        <v>0.328927</v>
+        <v>0.3286742</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3676,7 +3676,7 @@
         <v>297</v>
       </c>
       <c r="C299">
-        <v>0.3261299</v>
+        <v>0.3257972</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3687,7 +3687,7 @@
         <v>298</v>
       </c>
       <c r="C300">
-        <v>0.3232769</v>
+        <v>0.3228603</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3698,7 +3698,7 @@
         <v>299</v>
       </c>
       <c r="C301">
-        <v>0.3203663</v>
+        <v>0.3198619</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3709,7 +3709,7 @@
         <v>300</v>
       </c>
       <c r="C302">
-        <v>0.3173963</v>
+        <v>0.3168004</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3720,7 +3720,7 @@
         <v>301</v>
       </c>
       <c r="C303">
-        <v>0.3143654</v>
+        <v>0.3136746</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3731,7 +3731,7 @@
         <v>302</v>
       </c>
       <c r="C304">
-        <v>0.311272</v>
+        <v>0.3104831</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3742,7 +3742,7 @@
         <v>303</v>
       </c>
       <c r="C305">
-        <v>0.3081148</v>
+        <v>0.3072249</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3753,7 +3753,7 @@
         <v>304</v>
       </c>
       <c r="C306">
-        <v>0.3048925</v>
+        <v>0.3038991</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3764,7 +3764,7 @@
         <v>305</v>
       </c>
       <c r="C307">
-        <v>0.301604</v>
+        <v>0.300505</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3775,7 +3775,7 @@
         <v>306</v>
       </c>
       <c r="C308">
-        <v>0.2982484</v>
+        <v>0.2970422</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3786,7 +3786,7 @@
         <v>307</v>
       </c>
       <c r="C309">
-        <v>0.2948251</v>
+        <v>0.2935104</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3797,7 +3797,7 @@
         <v>308</v>
       </c>
       <c r="C310">
-        <v>0.2913336</v>
+        <v>0.2899098</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3808,7 +3808,7 @@
         <v>309</v>
       </c>
       <c r="C311">
-        <v>0.2877737</v>
+        <v>0.2862408</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3819,7 +3819,7 @@
         <v>310</v>
       </c>
       <c r="C312">
-        <v>0.2841457</v>
+        <v>0.2825039</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>311</v>
       </c>
       <c r="C313">
-        <v>0.2804498</v>
+        <v>0.2787004</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3841,7 +3841,7 @@
         <v>312</v>
       </c>
       <c r="C314">
-        <v>0.276687</v>
+        <v>0.2748317</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3852,7 +3852,7 @@
         <v>313</v>
       </c>
       <c r="C315">
-        <v>0.2728585</v>
+        <v>0.2708997</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3863,7 +3863,7 @@
         <v>314</v>
       </c>
       <c r="C316">
-        <v>0.2689659</v>
+        <v>0.2669068</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3874,7 +3874,7 @@
         <v>315</v>
       </c>
       <c r="C317">
-        <v>0.2650113</v>
+        <v>0.2628557</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3885,7 +3885,7 @@
         <v>316</v>
       </c>
       <c r="C318">
-        <v>0.2609974</v>
+        <v>0.2587497</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3896,7 +3896,7 @@
         <v>317</v>
       </c>
       <c r="C319">
-        <v>0.2569271</v>
+        <v>0.2545926</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3907,7 +3907,7 @@
         <v>318</v>
       </c>
       <c r="C320">
-        <v>0.2528042</v>
+        <v>0.2503887</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3918,7 +3918,7 @@
         <v>319</v>
       </c>
       <c r="C321">
-        <v>0.2486327</v>
+        <v>0.2461429</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3929,7 +3929,7 @@
         <v>320</v>
       </c>
       <c r="C322">
-        <v>0.2444174</v>
+        <v>0.2418605</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3940,7 +3940,7 @@
         <v>321</v>
       </c>
       <c r="C323">
-        <v>0.2401636</v>
+        <v>0.2375473</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3951,7 +3951,7 @@
         <v>322</v>
       </c>
       <c r="C324">
-        <v>0.2358771</v>
+        <v>0.2332097</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3962,7 +3962,7 @@
         <v>323</v>
       </c>
       <c r="C325">
-        <v>0.2315642</v>
+        <v>0.2288546</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3973,7 +3973,7 @@
         <v>324</v>
       </c>
       <c r="C326">
-        <v>0.2272319</v>
+        <v>0.2244891</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3984,7 +3984,7 @@
         <v>325</v>
       </c>
       <c r="C327">
-        <v>0.2228874</v>
+        <v>0.220121</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3995,7 +3995,7 @@
         <v>326</v>
       </c>
       <c r="C328">
-        <v>0.2185386</v>
+        <v>0.2157583</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4006,7 +4006,7 @@
         <v>327</v>
       </c>
       <c r="C329">
-        <v>0.2141937</v>
+        <v>0.2114092</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4017,7 +4017,7 @@
         <v>328</v>
       </c>
       <c r="C330">
-        <v>0.209861</v>
+        <v>0.2070823</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4028,7 +4028,7 @@
         <v>329</v>
       </c>
       <c r="C331">
-        <v>0.2055494</v>
+        <v>0.2027862</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>330</v>
       </c>
       <c r="C332">
-        <v>0.2012678</v>
+        <v>0.1985296</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4050,7 +4050,7 @@
         <v>331</v>
       </c>
       <c r="C333">
-        <v>0.1970251</v>
+        <v>0.1943212</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4061,7 +4061,7 @@
         <v>332</v>
       </c>
       <c r="C334">
-        <v>0.1928302</v>
+        <v>0.1901695</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4072,7 +4072,7 @@
         <v>333</v>
       </c>
       <c r="C335">
-        <v>0.1886921</v>
+        <v>0.1860829</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4083,7 +4083,7 @@
         <v>334</v>
       </c>
       <c r="C336">
-        <v>0.1846192</v>
+        <v>0.1820695</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4094,7 +4094,7 @@
         <v>335</v>
       </c>
       <c r="C337">
-        <v>0.18062</v>
+        <v>0.1781369</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4105,7 +4105,7 @@
         <v>336</v>
       </c>
       <c r="C338">
-        <v>0.1767024</v>
+        <v>0.1742924</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4116,7 +4116,7 @@
         <v>337</v>
       </c>
       <c r="C339">
-        <v>0.1728739</v>
+        <v>0.1705426</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4127,7 +4127,7 @@
         <v>338</v>
       </c>
       <c r="C340">
-        <v>0.1691413</v>
+        <v>0.1668938</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4138,7 +4138,7 @@
         <v>339</v>
       </c>
       <c r="C341">
-        <v>0.1655108</v>
+        <v>0.1633512</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>340</v>
       </c>
       <c r="C342">
-        <v>0.1619882</v>
+        <v>0.1599198</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4160,7 +4160,7 @@
         <v>341</v>
       </c>
       <c r="C343">
-        <v>0.1585783</v>
+        <v>0.1566036</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4171,7 +4171,7 @@
         <v>342</v>
       </c>
       <c r="C344">
-        <v>0.1552853</v>
+        <v>0.1534059</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4182,7 +4182,7 @@
         <v>343</v>
       </c>
       <c r="C345">
-        <v>0.1521124</v>
+        <v>0.1503293</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4193,7 +4193,7 @@
         <v>344</v>
       </c>
       <c r="C346">
-        <v>0.1490623</v>
+        <v>0.1473757</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4204,7 +4204,7 @@
         <v>345</v>
       </c>
       <c r="C347">
-        <v>0.1461368</v>
+        <v>0.1445462</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4215,7 +4215,7 @@
         <v>346</v>
       </c>
       <c r="C348">
-        <v>0.143337</v>
+        <v>0.1418413</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4226,7 +4226,7 @@
         <v>347</v>
       </c>
       <c r="C349">
-        <v>0.1406633</v>
+        <v>0.1392607</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4237,7 +4237,7 @@
         <v>348</v>
       </c>
       <c r="C350">
-        <v>0.1381152</v>
+        <v>0.1368037</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4248,7 +4248,7 @@
         <v>349</v>
       </c>
       <c r="C351">
-        <v>0.1356919</v>
+        <v>0.1344689</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4259,7 +4259,7 @@
         <v>350</v>
       </c>
       <c r="C352">
-        <v>0.1333918</v>
+        <v>0.1322543</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4270,7 +4270,7 @@
         <v>351</v>
       </c>
       <c r="C353">
-        <v>0.1312129</v>
+        <v>0.1301576</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4281,7 +4281,7 @@
         <v>352</v>
       </c>
       <c r="C354">
-        <v>0.1291525</v>
+        <v>0.1281759</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4292,7 +4292,7 @@
         <v>353</v>
       </c>
       <c r="C355">
-        <v>0.1272078</v>
+        <v>0.1263062</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4303,7 +4303,7 @@
         <v>354</v>
       </c>
       <c r="C356">
-        <v>0.1253753</v>
+        <v>0.124545</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4314,7 +4314,7 @@
         <v>355</v>
       </c>
       <c r="C357">
-        <v>0.1236516</v>
+        <v>0.1228886</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4325,7 +4325,7 @@
         <v>356</v>
       </c>
       <c r="C358">
-        <v>0.1220327</v>
+        <v>0.1213331</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4336,7 +4336,7 @@
         <v>357</v>
       </c>
       <c r="C359">
-        <v>0.1205146</v>
+        <v>0.1198746</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4347,7 +4347,7 @@
         <v>358</v>
       </c>
       <c r="C360">
-        <v>0.1190932</v>
+        <v>0.1185089</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4358,7 +4358,7 @@
         <v>359</v>
       </c>
       <c r="C361">
-        <v>0.1177641</v>
+        <v>0.1172318</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4369,7 +4369,7 @@
         <v>360</v>
       </c>
       <c r="C362">
-        <v>0.1165231</v>
+        <v>0.1160391</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4380,7 +4380,7 @@
         <v>361</v>
       </c>
       <c r="C363">
-        <v>0.1153659</v>
+        <v>0.1149266</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4391,7 +4391,7 @@
         <v>362</v>
       </c>
       <c r="C364">
-        <v>0.1142881</v>
+        <v>0.1138902</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4402,7 +4402,7 @@
         <v>363</v>
       </c>
       <c r="C365">
-        <v>0.1132855</v>
+        <v>0.1129257</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4413,7 +4413,7 @@
         <v>364</v>
       </c>
       <c r="C366">
-        <v>0.112354</v>
+        <v>0.1120292</v>
       </c>
     </row>
   </sheetData>
@@ -6395,7 +6395,7 @@
         <v>177</v>
       </c>
       <c r="C179">
-        <v>0.4532671</v>
+        <v>0.4532672</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -6439,7 +6439,7 @@
         <v>181</v>
       </c>
       <c r="C183">
-        <v>0.4570197</v>
+        <v>0.4570198</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -6450,7 +6450,7 @@
         <v>182</v>
       </c>
       <c r="C184">
-        <v>0.4577517</v>
+        <v>0.4577518</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -6472,7 +6472,7 @@
         <v>184</v>
       </c>
       <c r="C186">
-        <v>0.4590033</v>
+        <v>0.4590034</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -6483,7 +6483,7 @@
         <v>185</v>
       </c>
       <c r="C187">
-        <v>0.4595318</v>
+        <v>0.4595319</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -6494,7 +6494,7 @@
         <v>186</v>
       </c>
       <c r="C188">
-        <v>0.4600009</v>
+        <v>0.460001</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -6505,7 +6505,7 @@
         <v>187</v>
       </c>
       <c r="C189">
-        <v>0.4604145</v>
+        <v>0.4604146</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -6516,7 +6516,7 @@
         <v>188</v>
       </c>
       <c r="C190">
-        <v>0.4607759</v>
+        <v>0.4607761</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -6527,7 +6527,7 @@
         <v>189</v>
       </c>
       <c r="C191">
-        <v>0.4610886</v>
+        <v>0.4610888</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -6538,7 +6538,7 @@
         <v>190</v>
       </c>
       <c r="C192">
-        <v>0.4613556</v>
+        <v>0.4613558</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -6549,7 +6549,7 @@
         <v>191</v>
       </c>
       <c r="C193">
-        <v>0.4615797</v>
+        <v>0.4615799</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -6560,7 +6560,7 @@
         <v>192</v>
       </c>
       <c r="C194">
-        <v>0.4617636</v>
+        <v>0.4617638</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -6571,7 +6571,7 @@
         <v>193</v>
       </c>
       <c r="C195">
-        <v>0.4619095</v>
+        <v>0.4619098</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -6582,7 +6582,7 @@
         <v>194</v>
       </c>
       <c r="C196">
-        <v>0.4620198</v>
+        <v>0.4620202</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -6593,7 +6593,7 @@
         <v>195</v>
       </c>
       <c r="C197">
-        <v>0.4620965</v>
+        <v>0.4620969</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -6604,7 +6604,7 @@
         <v>196</v>
       </c>
       <c r="C198">
-        <v>0.4621414</v>
+        <v>0.4621419</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -6615,7 +6615,7 @@
         <v>197</v>
       </c>
       <c r="C199">
-        <v>0.4621562</v>
+        <v>0.4621568</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -6626,7 +6626,7 @@
         <v>198</v>
       </c>
       <c r="C200">
-        <v>0.4621424</v>
+        <v>0.4621431</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -6637,7 +6637,7 @@
         <v>199</v>
       </c>
       <c r="C201">
-        <v>0.4621015</v>
+        <v>0.4621022</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -6648,7 +6648,7 @@
         <v>200</v>
       </c>
       <c r="C202">
-        <v>0.4620345</v>
+        <v>0.4620353</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -6659,7 +6659,7 @@
         <v>201</v>
       </c>
       <c r="C203">
-        <v>0.4619426</v>
+        <v>0.4619436</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -6670,7 +6670,7 @@
         <v>202</v>
       </c>
       <c r="C204">
-        <v>0.4618268</v>
+        <v>0.4618279</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -6681,7 +6681,7 @@
         <v>203</v>
       </c>
       <c r="C205">
-        <v>0.4616879</v>
+        <v>0.4616892</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -6692,7 +6692,7 @@
         <v>204</v>
       </c>
       <c r="C206">
-        <v>0.4615265</v>
+        <v>0.461528</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -6703,7 +6703,7 @@
         <v>205</v>
       </c>
       <c r="C207">
-        <v>0.4613433</v>
+        <v>0.4613451</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -6714,7 +6714,7 @@
         <v>206</v>
       </c>
       <c r="C208">
-        <v>0.4611388</v>
+        <v>0.4611409</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -6725,7 +6725,7 @@
         <v>207</v>
       </c>
       <c r="C209">
-        <v>0.4609134</v>
+        <v>0.4609158</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -6736,7 +6736,7 @@
         <v>208</v>
       </c>
       <c r="C210">
-        <v>0.4606672</v>
+        <v>0.46067</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -6747,7 +6747,7 @@
         <v>209</v>
       </c>
       <c r="C211">
-        <v>0.4604006</v>
+        <v>0.4604037</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -6758,7 +6758,7 @@
         <v>210</v>
       </c>
       <c r="C212">
-        <v>0.4601135</v>
+        <v>0.4601171</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -6769,7 +6769,7 @@
         <v>211</v>
       </c>
       <c r="C213">
-        <v>0.459806</v>
+        <v>0.4598101</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -6780,7 +6780,7 @@
         <v>212</v>
       </c>
       <c r="C214">
-        <v>0.4594779</v>
+        <v>0.4594827</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -6791,7 +6791,7 @@
         <v>213</v>
       </c>
       <c r="C215">
-        <v>0.4591291</v>
+        <v>0.4591346</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -6802,7 +6802,7 @@
         <v>214</v>
       </c>
       <c r="C216">
-        <v>0.4587593</v>
+        <v>0.4587655</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -6813,7 +6813,7 @@
         <v>215</v>
       </c>
       <c r="C217">
-        <v>0.4583681</v>
+        <v>0.4583753</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -6824,7 +6824,7 @@
         <v>216</v>
       </c>
       <c r="C218">
-        <v>0.4579552</v>
+        <v>0.4579634</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -6835,7 +6835,7 @@
         <v>217</v>
       </c>
       <c r="C219">
-        <v>0.45752</v>
+        <v>0.4575293</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -6846,7 +6846,7 @@
         <v>218</v>
       </c>
       <c r="C220">
-        <v>0.4570621</v>
+        <v>0.4570726</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -6857,7 +6857,7 @@
         <v>219</v>
       </c>
       <c r="C221">
-        <v>0.4565806</v>
+        <v>0.4565926</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -6868,7 +6868,7 @@
         <v>220</v>
       </c>
       <c r="C222">
-        <v>0.4560751</v>
+        <v>0.4560886</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -6879,7 +6879,7 @@
         <v>221</v>
       </c>
       <c r="C223">
-        <v>0.4555446</v>
+        <v>0.45556</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -6890,7 +6890,7 @@
         <v>222</v>
       </c>
       <c r="C224">
-        <v>0.4549886</v>
+        <v>0.4550059</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -6901,7 +6901,7 @@
         <v>223</v>
       </c>
       <c r="C225">
-        <v>0.454406</v>
+        <v>0.4544256</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -6912,7 +6912,7 @@
         <v>224</v>
       </c>
       <c r="C226">
-        <v>0.4537961</v>
+        <v>0.4538182</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -6923,7 +6923,7 @@
         <v>225</v>
       </c>
       <c r="C227">
-        <v>0.453158</v>
+        <v>0.4531829</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -6934,7 +6934,7 @@
         <v>226</v>
       </c>
       <c r="C228">
-        <v>0.4524908</v>
+        <v>0.4525187</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -6945,7 +6945,7 @@
         <v>227</v>
       </c>
       <c r="C229">
-        <v>0.4517934</v>
+        <v>0.4518247</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -6956,7 +6956,7 @@
         <v>228</v>
       </c>
       <c r="C230">
-        <v>0.451065</v>
+        <v>0.4511001</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -6967,7 +6967,7 @@
         <v>229</v>
       </c>
       <c r="C231">
-        <v>0.4503046</v>
+        <v>0.4503439</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -6978,7 +6978,7 @@
         <v>230</v>
       </c>
       <c r="C232">
-        <v>0.4495113</v>
+        <v>0.4495551</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -6989,7 +6989,7 @@
         <v>231</v>
       </c>
       <c r="C233">
-        <v>0.4486842</v>
+        <v>0.448733</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -7000,7 +7000,7 @@
         <v>232</v>
       </c>
       <c r="C234">
-        <v>0.4478223</v>
+        <v>0.4478766</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -7011,7 +7011,7 @@
         <v>233</v>
       </c>
       <c r="C235">
-        <v>0.4469248</v>
+        <v>0.4469851</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -7022,7 +7022,7 @@
         <v>234</v>
       </c>
       <c r="C236">
-        <v>0.4459909</v>
+        <v>0.4460577</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -7033,7 +7033,7 @@
         <v>235</v>
       </c>
       <c r="C237">
-        <v>0.4450197</v>
+        <v>0.4450937</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -7044,7 +7044,7 @@
         <v>236</v>
       </c>
       <c r="C238">
-        <v>0.4440107</v>
+        <v>0.4440924</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -7055,7 +7055,7 @@
         <v>237</v>
       </c>
       <c r="C239">
-        <v>0.4429631</v>
+        <v>0.4430531</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -7066,7 +7066,7 @@
         <v>238</v>
       </c>
       <c r="C240">
-        <v>0.4418764</v>
+        <v>0.4419755</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -7077,7 +7077,7 @@
         <v>239</v>
       </c>
       <c r="C241">
-        <v>0.4407501</v>
+        <v>0.4408589</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -7088,7 +7088,7 @@
         <v>240</v>
       </c>
       <c r="C242">
-        <v>0.4395838</v>
+        <v>0.4397031</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -7099,7 +7099,7 @@
         <v>241</v>
       </c>
       <c r="C243">
-        <v>0.4383772</v>
+        <v>0.4385077</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -7110,7 +7110,7 @@
         <v>242</v>
       </c>
       <c r="C244">
-        <v>0.4371301</v>
+        <v>0.4372726</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -7121,7 +7121,7 @@
         <v>243</v>
       </c>
       <c r="C245">
-        <v>0.4358426</v>
+        <v>0.4359978</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -7132,7 +7132,7 @@
         <v>244</v>
       </c>
       <c r="C246">
-        <v>0.4345145</v>
+        <v>0.4346833</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -7143,7 +7143,7 @@
         <v>245</v>
       </c>
       <c r="C247">
-        <v>0.433146</v>
+        <v>0.4333292</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -7154,7 +7154,7 @@
         <v>246</v>
       </c>
       <c r="C248">
-        <v>0.4317375</v>
+        <v>0.4319358</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -7165,7 +7165,7 @@
         <v>247</v>
       </c>
       <c r="C249">
-        <v>0.4302892</v>
+        <v>0.4305034</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -7176,7 +7176,7 @@
         <v>248</v>
       </c>
       <c r="C250">
-        <v>0.4288017</v>
+        <v>0.4290326</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -7187,7 +7187,7 @@
         <v>249</v>
       </c>
       <c r="C251">
-        <v>0.4272755</v>
+        <v>0.4275238</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -7198,7 +7198,7 @@
         <v>250</v>
       </c>
       <c r="C252">
-        <v>0.4257114</v>
+        <v>0.4259779</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -7209,7 +7209,7 @@
         <v>251</v>
       </c>
       <c r="C253">
-        <v>0.4241102</v>
+        <v>0.4243955</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -7220,7 +7220,7 @@
         <v>252</v>
       </c>
       <c r="C254">
-        <v>0.4224728</v>
+        <v>0.4227775</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -7231,7 +7231,7 @@
         <v>253</v>
       </c>
       <c r="C255">
-        <v>0.4208001</v>
+        <v>0.4211248</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -7242,7 +7242,7 @@
         <v>254</v>
       </c>
       <c r="C256">
-        <v>0.4190932</v>
+        <v>0.4194383</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -7253,7 +7253,7 @@
         <v>255</v>
       </c>
       <c r="C257">
-        <v>0.4173532</v>
+        <v>0.4177192</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -7264,7 +7264,7 @@
         <v>256</v>
       </c>
       <c r="C258">
-        <v>0.4155813</v>
+        <v>0.4159684</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -7275,7 +7275,7 @@
         <v>257</v>
       </c>
       <c r="C259">
-        <v>0.4137787</v>
+        <v>0.4141872</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -7286,7 +7286,7 @@
         <v>258</v>
       </c>
       <c r="C260">
-        <v>0.4119466</v>
+        <v>0.4123765</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -7297,7 +7297,7 @@
         <v>259</v>
       </c>
       <c r="C261">
-        <v>0.4100863</v>
+        <v>0.4105375</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -7308,7 +7308,7 @@
         <v>260</v>
       </c>
       <c r="C262">
-        <v>0.408199</v>
+        <v>0.4086714</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -7319,7 +7319,7 @@
         <v>261</v>
       </c>
       <c r="C263">
-        <v>0.4062859</v>
+        <v>0.4067791</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -7330,7 +7330,7 @@
         <v>262</v>
       </c>
       <c r="C264">
-        <v>0.4043481</v>
+        <v>0.4048618</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -7341,7 +7341,7 @@
         <v>263</v>
       </c>
       <c r="C265">
-        <v>0.402387</v>
+        <v>0.4029203</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -7352,7 +7352,7 @@
         <v>264</v>
       </c>
       <c r="C266">
-        <v>0.4004034</v>
+        <v>0.4009556</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -7363,7 +7363,7 @@
         <v>265</v>
       </c>
       <c r="C267">
-        <v>0.3983985</v>
+        <v>0.3989685</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -7374,7 +7374,7 @@
         <v>266</v>
       </c>
       <c r="C268">
-        <v>0.3963731</v>
+        <v>0.3969597</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -7385,7 +7385,7 @@
         <v>267</v>
       </c>
       <c r="C269">
-        <v>0.3943281</v>
+        <v>0.3949299</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -7396,7 +7396,7 @@
         <v>268</v>
       </c>
       <c r="C270">
-        <v>0.3922641</v>
+        <v>0.3928796</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -7407,7 +7407,7 @@
         <v>269</v>
       </c>
       <c r="C271">
-        <v>0.3901819</v>
+        <v>0.3908092</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -7418,7 +7418,7 @@
         <v>270</v>
       </c>
       <c r="C272">
-        <v>0.3880818</v>
+        <v>0.3887188</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -7429,7 +7429,7 @@
         <v>271</v>
       </c>
       <c r="C273">
-        <v>0.3859641</v>
+        <v>0.3866088</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -7440,7 +7440,7 @@
         <v>272</v>
       </c>
       <c r="C274">
-        <v>0.3838292</v>
+        <v>0.3844789</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -7451,7 +7451,7 @@
         <v>273</v>
       </c>
       <c r="C275">
-        <v>0.3816771</v>
+        <v>0.3823292</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -7462,7 +7462,7 @@
         <v>274</v>
       </c>
       <c r="C276">
-        <v>0.3795076</v>
+        <v>0.3801593</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -7473,7 +7473,7 @@
         <v>275</v>
       </c>
       <c r="C277">
-        <v>0.3773205</v>
+        <v>0.3779687</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -7484,7 +7484,7 @@
         <v>276</v>
       </c>
       <c r="C278">
-        <v>0.3751155</v>
+        <v>0.3757568</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -7495,7 +7495,7 @@
         <v>277</v>
       </c>
       <c r="C279">
-        <v>0.372892</v>
+        <v>0.3735229</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -7506,7 +7506,7 @@
         <v>278</v>
       </c>
       <c r="C280">
-        <v>0.3706494</v>
+        <v>0.3712662</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -7517,7 +7517,7 @@
         <v>279</v>
       </c>
       <c r="C281">
-        <v>0.3683868</v>
+        <v>0.3689856</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -7528,7 +7528,7 @@
         <v>280</v>
       </c>
       <c r="C282">
-        <v>0.3661033</v>
+        <v>0.3666799</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -7539,7 +7539,7 @@
         <v>281</v>
       </c>
       <c r="C283">
-        <v>0.3637977</v>
+        <v>0.3643479</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -7550,7 +7550,7 @@
         <v>282</v>
       </c>
       <c r="C284">
-        <v>0.3614689</v>
+        <v>0.3619881</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -7561,7 +7561,7 @@
         <v>283</v>
       </c>
       <c r="C285">
-        <v>0.3591154</v>
+        <v>0.3595991</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -7572,7 +7572,7 @@
         <v>284</v>
       </c>
       <c r="C286">
-        <v>0.3567357</v>
+        <v>0.357179</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -7583,7 +7583,7 @@
         <v>285</v>
       </c>
       <c r="C287">
-        <v>0.3543283</v>
+        <v>0.3547263</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -7594,7 +7594,7 @@
         <v>286</v>
       </c>
       <c r="C288">
-        <v>0.3518914</v>
+        <v>0.352239</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -7605,7 +7605,7 @@
         <v>287</v>
       </c>
       <c r="C289">
-        <v>0.3494231</v>
+        <v>0.3497152</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -7616,7 +7616,7 @@
         <v>288</v>
       </c>
       <c r="C290">
-        <v>0.3469216</v>
+        <v>0.3471528</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -7627,7 +7627,7 @@
         <v>289</v>
       </c>
       <c r="C291">
-        <v>0.3443848</v>
+        <v>0.3445497</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -7638,7 +7638,7 @@
         <v>290</v>
       </c>
       <c r="C292">
-        <v>0.3418104</v>
+        <v>0.3419037</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -7649,7 +7649,7 @@
         <v>291</v>
       </c>
       <c r="C293">
-        <v>0.3391965</v>
+        <v>0.3392126</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -7660,7 +7660,7 @@
         <v>292</v>
       </c>
       <c r="C294">
-        <v>0.3365406</v>
+        <v>0.336474</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -7671,7 +7671,7 @@
         <v>293</v>
       </c>
       <c r="C295">
-        <v>0.3338403</v>
+        <v>0.3336857</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -7682,7 +7682,7 @@
         <v>294</v>
       </c>
       <c r="C296">
-        <v>0.3310934</v>
+        <v>0.3308452</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -7693,7 +7693,7 @@
         <v>295</v>
       </c>
       <c r="C297">
-        <v>0.3282972</v>
+        <v>0.3279501</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -7704,7 +7704,7 @@
         <v>296</v>
       </c>
       <c r="C298">
-        <v>0.3254494</v>
+        <v>0.3249981</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -7715,7 +7715,7 @@
         <v>297</v>
       </c>
       <c r="C299">
-        <v>0.3225474</v>
+        <v>0.3219868</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -7726,7 +7726,7 @@
         <v>298</v>
       </c>
       <c r="C300">
-        <v>0.3195887</v>
+        <v>0.3189139</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -7737,7 +7737,7 @@
         <v>299</v>
       </c>
       <c r="C301">
-        <v>0.3165708</v>
+        <v>0.315777</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -7748,7 +7748,7 @@
         <v>300</v>
       </c>
       <c r="C302">
-        <v>0.3134912</v>
+        <v>0.3125739</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -7759,7 +7759,7 @@
         <v>301</v>
       </c>
       <c r="C303">
-        <v>0.3103474</v>
+        <v>0.3093025</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -7770,7 +7770,7 @@
         <v>302</v>
       </c>
       <c r="C304">
-        <v>0.3071372</v>
+        <v>0.3059608</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -7781,7 +7781,7 @@
         <v>303</v>
       </c>
       <c r="C305">
-        <v>0.3038582</v>
+        <v>0.3025469</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -7792,7 +7792,7 @@
         <v>304</v>
       </c>
       <c r="C306">
-        <v>0.3005084</v>
+        <v>0.2990593</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -7803,7 +7803,7 @@
         <v>305</v>
       </c>
       <c r="C307">
-        <v>0.2970859</v>
+        <v>0.2954964</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -7814,7 +7814,7 @@
         <v>306</v>
       </c>
       <c r="C308">
-        <v>0.2935889</v>
+        <v>0.2918572</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -7825,7 +7825,7 @@
         <v>307</v>
       </c>
       <c r="C309">
-        <v>0.2900159</v>
+        <v>0.2881408</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -7836,7 +7836,7 @@
         <v>308</v>
       </c>
       <c r="C310">
-        <v>0.2863658</v>
+        <v>0.2843468</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -7847,7 +7847,7 @@
         <v>309</v>
       </c>
       <c r="C311">
-        <v>0.2826379</v>
+        <v>0.280475</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -7858,7 +7858,7 @@
         <v>310</v>
       </c>
       <c r="C312">
-        <v>0.2788316</v>
+        <v>0.2765259</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -7869,7 +7869,7 @@
         <v>311</v>
       </c>
       <c r="C313">
-        <v>0.2749471</v>
+        <v>0.2725004</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -7880,7 +7880,7 @@
         <v>312</v>
       </c>
       <c r="C314">
-        <v>0.270985</v>
+        <v>0.2684</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -7891,7 +7891,7 @@
         <v>313</v>
       </c>
       <c r="C315">
-        <v>0.2669464</v>
+        <v>0.2642267</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -7902,7 +7902,7 @@
         <v>314</v>
       </c>
       <c r="C316">
-        <v>0.2628331</v>
+        <v>0.2599834</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -7913,7 +7913,7 @@
         <v>315</v>
       </c>
       <c r="C317">
-        <v>0.2586475</v>
+        <v>0.2556736</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -7924,7 +7924,7 @@
         <v>316</v>
       </c>
       <c r="C318">
-        <v>0.254393</v>
+        <v>0.2513013</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -7935,7 +7935,7 @@
         <v>317</v>
       </c>
       <c r="C319">
-        <v>0.2500734</v>
+        <v>0.2468718</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -7946,7 +7946,7 @@
         <v>318</v>
       </c>
       <c r="C320">
-        <v>0.2456936</v>
+        <v>0.2423906</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -7957,7 +7957,7 @@
         <v>319</v>
       </c>
       <c r="C321">
-        <v>0.2412592</v>
+        <v>0.2378645</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -7968,7 +7968,7 @@
         <v>320</v>
       </c>
       <c r="C322">
-        <v>0.2367766</v>
+        <v>0.2333008</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -7979,7 +7979,7 @@
         <v>321</v>
       </c>
       <c r="C323">
-        <v>0.2322533</v>
+        <v>0.2287076</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -7990,7 +7990,7 @@
         <v>322</v>
       </c>
       <c r="C324">
-        <v>0.2276971</v>
+        <v>0.2240938</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -8001,7 +8001,7 @@
         <v>323</v>
       </c>
       <c r="C325">
-        <v>0.2231172</v>
+        <v>0.219469</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -8012,7 +8012,7 @@
         <v>324</v>
       </c>
       <c r="C326">
-        <v>0.218523</v>
+        <v>0.2148433</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -8023,7 +8023,7 @@
         <v>325</v>
       </c>
       <c r="C327">
-        <v>0.2139248</v>
+        <v>0.2102273</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -8034,7 +8034,7 @@
         <v>326</v>
       </c>
       <c r="C328">
-        <v>0.2093333</v>
+        <v>0.205632</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -8045,7 +8045,7 @@
         <v>327</v>
       </c>
       <c r="C329">
-        <v>0.2047599</v>
+        <v>0.2010687</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -8056,7 +8056,7 @@
         <v>328</v>
       </c>
       <c r="C330">
-        <v>0.2002159</v>
+        <v>0.1965489</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -8067,7 +8067,7 @@
         <v>329</v>
       </c>
       <c r="C331">
-        <v>0.1957131</v>
+        <v>0.1920838</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -8078,7 +8078,7 @@
         <v>330</v>
       </c>
       <c r="C332">
-        <v>0.1912632</v>
+        <v>0.1876848</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -8089,7 +8089,7 @@
         <v>331</v>
       </c>
       <c r="C333">
-        <v>0.1868775</v>
+        <v>0.1833627</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -8100,7 +8100,7 @@
         <v>332</v>
       </c>
       <c r="C334">
-        <v>0.1825675</v>
+        <v>0.179128</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -8111,7 +8111,7 @@
         <v>333</v>
       </c>
       <c r="C335">
-        <v>0.1783438</v>
+        <v>0.1749906</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -8122,7 +8122,7 @@
         <v>334</v>
       </c>
       <c r="C336">
-        <v>0.1742166</v>
+        <v>0.1709597</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -8133,7 +8133,7 @@
         <v>335</v>
       </c>
       <c r="C337">
-        <v>0.1701953</v>
+        <v>0.1670435</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -8144,7 +8144,7 @@
         <v>336</v>
       </c>
       <c r="C338">
-        <v>0.1662886</v>
+        <v>0.1632494</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -8155,7 +8155,7 @@
         <v>337</v>
       </c>
       <c r="C339">
-        <v>0.162504</v>
+        <v>0.159584</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -8166,7 +8166,7 @@
         <v>338</v>
       </c>
       <c r="C340">
-        <v>0.1588483</v>
+        <v>0.1560525</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -8177,7 +8177,7 @@
         <v>339</v>
       </c>
       <c r="C341">
-        <v>0.1553269</v>
+        <v>0.1526593</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -8188,7 +8188,7 @@
         <v>340</v>
       </c>
       <c r="C342">
-        <v>0.1519443</v>
+        <v>0.1494076</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -8199,7 +8199,7 @@
         <v>341</v>
       </c>
       <c r="C343">
-        <v>0.1487038</v>
+        <v>0.1462996</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -8210,7 +8210,7 @@
         <v>342</v>
       </c>
       <c r="C344">
-        <v>0.1456078</v>
+        <v>0.1433363</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -8221,7 +8221,7 @@
         <v>343</v>
       </c>
       <c r="C345">
-        <v>0.1426574</v>
+        <v>0.1405181</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -8232,7 +8232,7 @@
         <v>344</v>
       </c>
       <c r="C346">
-        <v>0.1398527</v>
+        <v>0.137844</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -8243,7 +8243,7 @@
         <v>345</v>
       </c>
       <c r="C347">
-        <v>0.1371931</v>
+        <v>0.1353126</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -8254,7 +8254,7 @@
         <v>346</v>
       </c>
       <c r="C348">
-        <v>0.1346769</v>
+        <v>0.1329215</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -8265,7 +8265,7 @@
         <v>347</v>
       </c>
       <c r="C349">
-        <v>0.1323018</v>
+        <v>0.1306676</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -8276,7 +8276,7 @@
         <v>348</v>
       </c>
       <c r="C350">
-        <v>0.1300645</v>
+        <v>0.1285473</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -8287,7 +8287,7 @@
         <v>349</v>
       </c>
       <c r="C351">
-        <v>0.1279615</v>
+        <v>0.1265565</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -8298,7 +8298,7 @@
         <v>350</v>
       </c>
       <c r="C352">
-        <v>0.1259886</v>
+        <v>0.1246908</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -8309,7 +8309,7 @@
         <v>351</v>
       </c>
       <c r="C353">
-        <v>0.1241411</v>
+        <v>0.1229451</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -8320,7 +8320,7 @@
         <v>352</v>
       </c>
       <c r="C354">
-        <v>0.1224141</v>
+        <v>0.1213146</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -8331,7 +8331,7 @@
         <v>353</v>
       </c>
       <c r="C355">
-        <v>0.1208025</v>
+        <v>0.1197939</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -8342,7 +8342,7 @@
         <v>354</v>
       </c>
       <c r="C356">
-        <v>0.1193009</v>
+        <v>0.1183778</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -8353,7 +8353,7 @@
         <v>355</v>
       </c>
       <c r="C357">
-        <v>0.1179039</v>
+        <v>0.1170607</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -8364,7 +8364,7 @@
         <v>356</v>
       </c>
       <c r="C358">
-        <v>0.1166061</v>
+        <v>0.1158374</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -8375,7 +8375,7 @@
         <v>357</v>
       </c>
       <c r="C359">
-        <v>0.1154019</v>
+        <v>0.1147026</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -8386,7 +8386,7 @@
         <v>358</v>
       </c>
       <c r="C360">
-        <v>0.114286</v>
+        <v>0.113651</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -8397,7 +8397,7 @@
         <v>359</v>
       </c>
       <c r="C361">
-        <v>0.1132532</v>
+        <v>0.1126776</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -8408,7 +8408,7 @@
         <v>360</v>
       </c>
       <c r="C362">
-        <v>0.1122983</v>
+        <v>0.1117774</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -8419,7 +8419,7 @@
         <v>361</v>
       </c>
       <c r="C363">
-        <v>0.1114163</v>
+        <v>0.1109458</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -8430,7 +8430,7 @@
         <v>362</v>
       </c>
       <c r="C364">
-        <v>0.1106024</v>
+        <v>0.1101781</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -8441,7 +8441,7 @@
         <v>363</v>
       </c>
       <c r="C365">
-        <v>0.109852</v>
+        <v>0.10947</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -8452,7 +8452,7 @@
         <v>364</v>
       </c>
       <c r="C366">
-        <v>0.1091608</v>
+        <v>0.1088173</v>
       </c>
     </row>
   </sheetData>
@@ -10379,7 +10379,7 @@
         <v>172</v>
       </c>
       <c r="C174">
-        <v>0.4744736</v>
+        <v>0.4744737</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -10412,7 +10412,7 @@
         <v>175</v>
       </c>
       <c r="C177">
-        <v>0.4777867</v>
+        <v>0.4777868</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -10423,7 +10423,7 @@
         <v>176</v>
       </c>
       <c r="C178">
-        <v>0.4785792</v>
+        <v>0.4785793</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -10445,7 +10445,7 @@
         <v>178</v>
       </c>
       <c r="C180">
-        <v>0.4797596</v>
+        <v>0.4797597</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -10456,7 +10456,7 @@
         <v>179</v>
       </c>
       <c r="C181">
-        <v>0.4801674</v>
+        <v>0.4801675</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -10478,7 +10478,7 @@
         <v>181</v>
       </c>
       <c r="C183">
-        <v>0.4806647</v>
+        <v>0.4806648</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -10489,7 +10489,7 @@
         <v>182</v>
       </c>
       <c r="C184">
-        <v>0.4807716</v>
+        <v>0.4807717</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -10522,7 +10522,7 @@
         <v>185</v>
       </c>
       <c r="C187">
-        <v>0.480619</v>
+        <v>0.4806191</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -10533,7 +10533,7 @@
         <v>186</v>
       </c>
       <c r="C188">
-        <v>0.4804337</v>
+        <v>0.4804338</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -10544,7 +10544,7 @@
         <v>187</v>
       </c>
       <c r="C189">
-        <v>0.4801918</v>
+        <v>0.480192</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -10555,7 +10555,7 @@
         <v>188</v>
       </c>
       <c r="C190">
-        <v>0.479899</v>
+        <v>0.4798992</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -10566,7 +10566,7 @@
         <v>189</v>
       </c>
       <c r="C191">
-        <v>0.4795604</v>
+        <v>0.4795606</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -10577,7 +10577,7 @@
         <v>190</v>
       </c>
       <c r="C192">
-        <v>0.4791808</v>
+        <v>0.479181</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -10588,7 +10588,7 @@
         <v>191</v>
       </c>
       <c r="C193">
-        <v>0.4787646</v>
+        <v>0.4787649</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -10599,7 +10599,7 @@
         <v>192</v>
       </c>
       <c r="C194">
-        <v>0.478316</v>
+        <v>0.4783163</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -10610,7 +10610,7 @@
         <v>193</v>
       </c>
       <c r="C195">
-        <v>0.4778384</v>
+        <v>0.4778388</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -10621,7 +10621,7 @@
         <v>194</v>
       </c>
       <c r="C196">
-        <v>0.4773353</v>
+        <v>0.4773358</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -10632,7 +10632,7 @@
         <v>195</v>
       </c>
       <c r="C197">
-        <v>0.4768097</v>
+        <v>0.4768103</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -10643,7 +10643,7 @@
         <v>196</v>
       </c>
       <c r="C198">
-        <v>0.4762642</v>
+        <v>0.4762649</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -10654,7 +10654,7 @@
         <v>197</v>
       </c>
       <c r="C199">
-        <v>0.4757013</v>
+        <v>0.475702</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -10665,7 +10665,7 @@
         <v>198</v>
       </c>
       <c r="C200">
-        <v>0.4751229</v>
+        <v>0.4751238</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -10676,7 +10676,7 @@
         <v>199</v>
       </c>
       <c r="C201">
-        <v>0.4745311</v>
+        <v>0.4745321</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -10687,7 +10687,7 @@
         <v>200</v>
       </c>
       <c r="C202">
-        <v>0.4739273</v>
+        <v>0.4739285</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -10698,7 +10698,7 @@
         <v>201</v>
       </c>
       <c r="C203">
-        <v>0.473313</v>
+        <v>0.4733144</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -10709,7 +10709,7 @@
         <v>202</v>
       </c>
       <c r="C204">
-        <v>0.4726894</v>
+        <v>0.4726909</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -10720,7 +10720,7 @@
         <v>203</v>
       </c>
       <c r="C205">
-        <v>0.4720573</v>
+        <v>0.4720591</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -10731,7 +10731,7 @@
         <v>204</v>
       </c>
       <c r="C206">
-        <v>0.4714176</v>
+        <v>0.4714196</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -10742,7 +10742,7 @@
         <v>205</v>
       </c>
       <c r="C207">
-        <v>0.4707708</v>
+        <v>0.4707731</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -10753,7 +10753,7 @@
         <v>206</v>
       </c>
       <c r="C208">
-        <v>0.4701173</v>
+        <v>0.47012</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -10764,7 +10764,7 @@
         <v>207</v>
       </c>
       <c r="C209">
-        <v>0.4694574</v>
+        <v>0.4694605</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -10775,7 +10775,7 @@
         <v>208</v>
       </c>
       <c r="C210">
-        <v>0.4687913</v>
+        <v>0.4687948</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -10786,7 +10786,7 @@
         <v>209</v>
       </c>
       <c r="C211">
-        <v>0.4681188</v>
+        <v>0.4681228</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -10797,7 +10797,7 @@
         <v>210</v>
       </c>
       <c r="C212">
-        <v>0.4674398</v>
+        <v>0.4674444</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -10808,7 +10808,7 @@
         <v>211</v>
       </c>
       <c r="C213">
-        <v>0.466754</v>
+        <v>0.4667593</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -10819,7 +10819,7 @@
         <v>212</v>
       </c>
       <c r="C214">
-        <v>0.4660611</v>
+        <v>0.4660671</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -10830,7 +10830,7 @@
         <v>213</v>
       </c>
       <c r="C215">
-        <v>0.4653605</v>
+        <v>0.4653673</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -10841,7 +10841,7 @@
         <v>214</v>
       </c>
       <c r="C216">
-        <v>0.4646517</v>
+        <v>0.4646594</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -10852,7 +10852,7 @@
         <v>215</v>
       </c>
       <c r="C217">
-        <v>0.4639339</v>
+        <v>0.4639427</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -10863,7 +10863,7 @@
         <v>216</v>
       </c>
       <c r="C218">
-        <v>0.4632063</v>
+        <v>0.4632163</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -10874,7 +10874,7 @@
         <v>217</v>
       </c>
       <c r="C219">
-        <v>0.4624682</v>
+        <v>0.4624795</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -10885,7 +10885,7 @@
         <v>218</v>
       </c>
       <c r="C220">
-        <v>0.4617187</v>
+        <v>0.4617314</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -10896,7 +10896,7 @@
         <v>219</v>
       </c>
       <c r="C221">
-        <v>0.4609566</v>
+        <v>0.460971</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -10907,7 +10907,7 @@
         <v>220</v>
       </c>
       <c r="C222">
-        <v>0.4601811</v>
+        <v>0.4601974</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -10918,7 +10918,7 @@
         <v>221</v>
       </c>
       <c r="C223">
-        <v>0.4593911</v>
+        <v>0.4594093</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -10929,7 +10929,7 @@
         <v>222</v>
       </c>
       <c r="C224">
-        <v>0.4585854</v>
+        <v>0.4586059</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -10940,7 +10940,7 @@
         <v>223</v>
       </c>
       <c r="C225">
-        <v>0.4577629</v>
+        <v>0.4577859</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -10951,7 +10951,7 @@
         <v>224</v>
       </c>
       <c r="C226">
-        <v>0.4569225</v>
+        <v>0.4569483</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -10962,7 +10962,7 @@
         <v>225</v>
       </c>
       <c r="C227">
-        <v>0.456063</v>
+        <v>0.4560918</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -10973,7 +10973,7 @@
         <v>226</v>
       </c>
       <c r="C228">
-        <v>0.4551831</v>
+        <v>0.4552153</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -10984,7 +10984,7 @@
         <v>227</v>
       </c>
       <c r="C229">
-        <v>0.4542818</v>
+        <v>0.4543177</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -10995,7 +10995,7 @@
         <v>228</v>
       </c>
       <c r="C230">
-        <v>0.4533578</v>
+        <v>0.4533978</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -11006,7 +11006,7 @@
         <v>229</v>
       </c>
       <c r="C231">
-        <v>0.4524099</v>
+        <v>0.4524545</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -11017,7 +11017,7 @@
         <v>230</v>
       </c>
       <c r="C232">
-        <v>0.4514372</v>
+        <v>0.4514866</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -11028,7 +11028,7 @@
         <v>231</v>
       </c>
       <c r="C233">
-        <v>0.4504383</v>
+        <v>0.4504932</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -11039,7 +11039,7 @@
         <v>232</v>
       </c>
       <c r="C234">
-        <v>0.4494124</v>
+        <v>0.4494731</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -11050,7 +11050,7 @@
         <v>233</v>
       </c>
       <c r="C235">
-        <v>0.4483583</v>
+        <v>0.4484254</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -11061,7 +11061,7 @@
         <v>234</v>
       </c>
       <c r="C236">
-        <v>0.4472752</v>
+        <v>0.4473492</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -11072,7 +11072,7 @@
         <v>235</v>
       </c>
       <c r="C237">
-        <v>0.4461621</v>
+        <v>0.4462435</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -11083,7 +11083,7 @@
         <v>236</v>
       </c>
       <c r="C238">
-        <v>0.4450182</v>
+        <v>0.4451077</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -11094,7 +11094,7 @@
         <v>237</v>
       </c>
       <c r="C239">
-        <v>0.4438428</v>
+        <v>0.443941</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -11105,7 +11105,7 @@
         <v>238</v>
       </c>
       <c r="C240">
-        <v>0.4426352</v>
+        <v>0.4427428</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -11116,7 +11116,7 @@
         <v>239</v>
       </c>
       <c r="C241">
-        <v>0.4413947</v>
+        <v>0.4415124</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -11127,7 +11127,7 @@
         <v>240</v>
       </c>
       <c r="C242">
-        <v>0.4401211</v>
+        <v>0.4402495</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -11138,7 +11138,7 @@
         <v>241</v>
       </c>
       <c r="C243">
-        <v>0.4388138</v>
+        <v>0.4389537</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -11149,7 +11149,7 @@
         <v>242</v>
       </c>
       <c r="C244">
-        <v>0.4374725</v>
+        <v>0.4376247</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -11160,7 +11160,7 @@
         <v>243</v>
       </c>
       <c r="C245">
-        <v>0.4360972</v>
+        <v>0.4362623</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -11171,7 +11171,7 @@
         <v>244</v>
       </c>
       <c r="C246">
-        <v>0.4346877</v>
+        <v>0.4348665</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -11182,7 +11182,7 @@
         <v>245</v>
       </c>
       <c r="C247">
-        <v>0.433244</v>
+        <v>0.4334373</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -11193,7 +11193,7 @@
         <v>246</v>
       </c>
       <c r="C248">
-        <v>0.4317663</v>
+        <v>0.4319749</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -11204,7 +11204,7 @@
         <v>247</v>
       </c>
       <c r="C249">
-        <v>0.4302548</v>
+        <v>0.4304794</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -11215,7 +11215,7 @@
         <v>248</v>
       </c>
       <c r="C250">
-        <v>0.4287099</v>
+        <v>0.4289511</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -11226,7 +11226,7 @@
         <v>249</v>
       </c>
       <c r="C251">
-        <v>0.4271319</v>
+        <v>0.4273906</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -11237,7 +11237,7 @@
         <v>250</v>
       </c>
       <c r="C252">
-        <v>0.4255215</v>
+        <v>0.4257982</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -11248,7 +11248,7 @@
         <v>251</v>
       </c>
       <c r="C253">
-        <v>0.4238792</v>
+        <v>0.4241746</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -11259,7 +11259,7 @@
         <v>252</v>
       </c>
       <c r="C254">
-        <v>0.4222057</v>
+        <v>0.4225203</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -11270,7 +11270,7 @@
         <v>253</v>
       </c>
       <c r="C255">
-        <v>0.4205018</v>
+        <v>0.4208362</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -11281,7 +11281,7 @@
         <v>254</v>
       </c>
       <c r="C256">
-        <v>0.4187683</v>
+        <v>0.4191228</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -11292,7 +11292,7 @@
         <v>255</v>
       </c>
       <c r="C257">
-        <v>0.4170061</v>
+        <v>0.4173812</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -11303,7 +11303,7 @@
         <v>256</v>
       </c>
       <c r="C258">
-        <v>0.4152161</v>
+        <v>0.415612</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -11314,7 +11314,7 @@
         <v>257</v>
       </c>
       <c r="C259">
-        <v>0.4133993</v>
+        <v>0.4138161</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -11325,7 +11325,7 @@
         <v>258</v>
       </c>
       <c r="C260">
-        <v>0.4115566</v>
+        <v>0.4119944</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -11336,7 +11336,7 @@
         <v>259</v>
       </c>
       <c r="C261">
-        <v>0.4096891</v>
+        <v>0.4101477</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -11347,7 +11347,7 @@
         <v>260</v>
       </c>
       <c r="C262">
-        <v>0.4077976</v>
+        <v>0.4082769</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -11358,7 +11358,7 @@
         <v>261</v>
       </c>
       <c r="C263">
-        <v>0.4058831</v>
+        <v>0.4063828</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -11369,7 +11369,7 @@
         <v>262</v>
       </c>
       <c r="C264">
-        <v>0.4039467</v>
+        <v>0.4044661</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -11380,7 +11380,7 @@
         <v>263</v>
       </c>
       <c r="C265">
-        <v>0.401989</v>
+        <v>0.4025276</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -11391,7 +11391,7 @@
         <v>264</v>
       </c>
       <c r="C266">
-        <v>0.400011</v>
+        <v>0.4005679</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -11402,7 +11402,7 @@
         <v>265</v>
       </c>
       <c r="C267">
-        <v>0.3980135</v>
+        <v>0.3985877</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -11413,7 +11413,7 @@
         <v>266</v>
       </c>
       <c r="C268">
-        <v>0.3959971</v>
+        <v>0.3965873</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -11424,7 +11424,7 @@
         <v>267</v>
       </c>
       <c r="C269">
-        <v>0.3939624</v>
+        <v>0.3945673</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -11435,7 +11435,7 @@
         <v>268</v>
       </c>
       <c r="C270">
-        <v>0.3919098</v>
+        <v>0.3925278</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -11446,7 +11446,7 @@
         <v>269</v>
       </c>
       <c r="C271">
-        <v>0.3898399</v>
+        <v>0.3904692</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -11457,7 +11457,7 @@
         <v>270</v>
       </c>
       <c r="C272">
-        <v>0.3877529</v>
+        <v>0.3883914</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -11468,7 +11468,7 @@
         <v>271</v>
       </c>
       <c r="C273">
-        <v>0.3856489</v>
+        <v>0.3862945</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -11479,7 +11479,7 @@
         <v>272</v>
       </c>
       <c r="C274">
-        <v>0.383528</v>
+        <v>0.3841782</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -11490,7 +11490,7 @@
         <v>273</v>
       </c>
       <c r="C275">
-        <v>0.3813901</v>
+        <v>0.3820423</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -11501,7 +11501,7 @@
         <v>274</v>
       </c>
       <c r="C276">
-        <v>0.379235</v>
+        <v>0.3798864</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -11512,7 +11512,7 @@
         <v>275</v>
       </c>
       <c r="C277">
-        <v>0.3770624</v>
+        <v>0.3777098</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -11523,7 +11523,7 @@
         <v>276</v>
       </c>
       <c r="C278">
-        <v>0.3748717</v>
+        <v>0.3755119</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -11534,7 +11534,7 @@
         <v>277</v>
       </c>
       <c r="C279">
-        <v>0.3726623</v>
+        <v>0.3732918</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -11545,7 +11545,7 @@
         <v>278</v>
       </c>
       <c r="C280">
-        <v>0.3704334</v>
+        <v>0.3710486</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -11556,7 +11556,7 @@
         <v>279</v>
       </c>
       <c r="C281">
-        <v>0.3681843</v>
+        <v>0.3687812</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -11567,7 +11567,7 @@
         <v>280</v>
       </c>
       <c r="C282">
-        <v>0.3659138</v>
+        <v>0.3664883</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -11578,7 +11578,7 @@
         <v>281</v>
       </c>
       <c r="C283">
-        <v>0.3636208</v>
+        <v>0.3641687</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -11589,7 +11589,7 @@
         <v>282</v>
       </c>
       <c r="C284">
-        <v>0.3613041</v>
+        <v>0.3618209</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -11600,7 +11600,7 @@
         <v>283</v>
       </c>
       <c r="C285">
-        <v>0.3589621</v>
+        <v>0.3594433</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -11611,7 +11611,7 @@
         <v>284</v>
       </c>
       <c r="C286">
-        <v>0.3565935</v>
+        <v>0.3570343</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -11622,7 +11622,7 @@
         <v>285</v>
       </c>
       <c r="C287">
-        <v>0.3541966</v>
+        <v>0.354592</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -11633,7 +11633,7 @@
         <v>286</v>
       </c>
       <c r="C288">
-        <v>0.3517697</v>
+        <v>0.3521146</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -11644,7 +11644,7 @@
         <v>287</v>
       </c>
       <c r="C289">
-        <v>0.3493108</v>
+        <v>0.3496002</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -11655,7 +11655,7 @@
         <v>288</v>
       </c>
       <c r="C290">
-        <v>0.3468182</v>
+        <v>0.3470467</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -11666,7 +11666,7 @@
         <v>289</v>
       </c>
       <c r="C291">
-        <v>0.3442897</v>
+        <v>0.344452</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -11677,7 +11677,7 @@
         <v>290</v>
       </c>
       <c r="C292">
-        <v>0.3417232</v>
+        <v>0.3418138</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -11688,7 +11688,7 @@
         <v>291</v>
       </c>
       <c r="C293">
-        <v>0.3391165</v>
+        <v>0.3391301</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -11699,7 +11699,7 @@
         <v>292</v>
       </c>
       <c r="C294">
-        <v>0.3364674</v>
+        <v>0.3363984</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -11710,7 +11710,7 @@
         <v>293</v>
       </c>
       <c r="C295">
-        <v>0.3337735</v>
+        <v>0.3336165</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -11721,7 +11721,7 @@
         <v>294</v>
       </c>
       <c r="C296">
-        <v>0.3310324</v>
+        <v>0.3307819</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -11732,7 +11732,7 @@
         <v>295</v>
       </c>
       <c r="C297">
-        <v>0.3282417</v>
+        <v>0.3278924</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -11743,7 +11743,7 @@
         <v>296</v>
       </c>
       <c r="C298">
-        <v>0.3253989</v>
+        <v>0.3249456</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -11754,7 +11754,7 @@
         <v>297</v>
       </c>
       <c r="C299">
-        <v>0.3225016</v>
+        <v>0.321939</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -11765,7 +11765,7 @@
         <v>298</v>
       </c>
       <c r="C300">
-        <v>0.3195471</v>
+        <v>0.3188705</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -11776,7 +11776,7 @@
         <v>299</v>
       </c>
       <c r="C301">
-        <v>0.3165331</v>
+        <v>0.3157376</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -11787,7 +11787,7 @@
         <v>300</v>
       </c>
       <c r="C302">
-        <v>0.3134571</v>
+        <v>0.3125382</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -11798,7 +11798,7 @@
         <v>301</v>
       </c>
       <c r="C303">
-        <v>0.3103167</v>
+        <v>0.3092702</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -11809,7 +11809,7 @@
         <v>302</v>
       </c>
       <c r="C304">
-        <v>0.3071095</v>
+        <v>0.3059317</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -11820,7 +11820,7 @@
         <v>303</v>
       </c>
       <c r="C305">
-        <v>0.3038333</v>
+        <v>0.3025207</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -11831,7 +11831,7 @@
         <v>304</v>
       </c>
       <c r="C306">
-        <v>0.300486</v>
+        <v>0.2990357</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -11842,7 +11842,7 @@
         <v>305</v>
       </c>
       <c r="C307">
-        <v>0.2970658</v>
+        <v>0.2954753</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -11853,7 +11853,7 @@
         <v>306</v>
       </c>
       <c r="C308">
-        <v>0.2935709</v>
+        <v>0.2918382</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -11864,7 +11864,7 @@
         <v>307</v>
       </c>
       <c r="C309">
-        <v>0.2899998</v>
+        <v>0.2881238</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -11875,7 +11875,7 @@
         <v>308</v>
       </c>
       <c r="C310">
-        <v>0.2863515</v>
+        <v>0.2843316</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -11886,7 +11886,7 @@
         <v>309</v>
       </c>
       <c r="C311">
-        <v>0.2826251</v>
+        <v>0.2804615</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -11897,7 +11897,7 @@
         <v>310</v>
       </c>
       <c r="C312">
-        <v>0.2788202</v>
+        <v>0.2765138</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -11908,7 +11908,7 @@
         <v>311</v>
       </c>
       <c r="C313">
-        <v>0.274937</v>
+        <v>0.2724897</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -11919,7 +11919,7 @@
         <v>312</v>
       </c>
       <c r="C314">
-        <v>0.270976</v>
+        <v>0.2683905</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -11930,7 +11930,7 @@
         <v>313</v>
       </c>
       <c r="C315">
-        <v>0.2669384</v>
+        <v>0.2642183</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -11941,7 +11941,7 @@
         <v>314</v>
       </c>
       <c r="C316">
-        <v>0.262826</v>
+        <v>0.259976</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -11952,7 +11952,7 @@
         <v>315</v>
       </c>
       <c r="C317">
-        <v>0.2586413</v>
+        <v>0.255667</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -11963,7 +11963,7 @@
         <v>316</v>
       </c>
       <c r="C318">
-        <v>0.2543875</v>
+        <v>0.2512956</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -11974,7 +11974,7 @@
         <v>317</v>
       </c>
       <c r="C319">
-        <v>0.2500686</v>
+        <v>0.2468667</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -11985,7 +11985,7 @@
         <v>318</v>
       </c>
       <c r="C320">
-        <v>0.2456894</v>
+        <v>0.2423862</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -11996,7 +11996,7 @@
         <v>319</v>
       </c>
       <c r="C321">
-        <v>0.2412555</v>
+        <v>0.2378606</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -12007,7 +12007,7 @@
         <v>320</v>
       </c>
       <c r="C322">
-        <v>0.2367734</v>
+        <v>0.2332974</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -12018,7 +12018,7 @@
         <v>321</v>
       </c>
       <c r="C323">
-        <v>0.2322505</v>
+        <v>0.2287046</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -12029,7 +12029,7 @@
         <v>322</v>
       </c>
       <c r="C324">
-        <v>0.2276947</v>
+        <v>0.2240913</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -12040,7 +12040,7 @@
         <v>323</v>
       </c>
       <c r="C325">
-        <v>0.2231151</v>
+        <v>0.2194668</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -12051,7 +12051,7 @@
         <v>324</v>
       </c>
       <c r="C326">
-        <v>0.2185212</v>
+        <v>0.2148414</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -12062,7 +12062,7 @@
         <v>325</v>
       </c>
       <c r="C327">
-        <v>0.2139232</v>
+        <v>0.2102257</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -12073,7 +12073,7 @@
         <v>326</v>
       </c>
       <c r="C328">
-        <v>0.209332</v>
+        <v>0.2056306</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -12084,7 +12084,7 @@
         <v>327</v>
       </c>
       <c r="C329">
-        <v>0.2047587</v>
+        <v>0.2010675</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -12095,7 +12095,7 @@
         <v>328</v>
       </c>
       <c r="C330">
-        <v>0.2002149</v>
+        <v>0.1965478</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -12106,7 +12106,7 @@
         <v>329</v>
       </c>
       <c r="C331">
-        <v>0.1957123</v>
+        <v>0.1920829</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -12117,7 +12117,7 @@
         <v>330</v>
       </c>
       <c r="C332">
-        <v>0.1912624</v>
+        <v>0.187684</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -12128,7 +12128,7 @@
         <v>331</v>
       </c>
       <c r="C333">
-        <v>0.1868769</v>
+        <v>0.183362</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -12139,7 +12139,7 @@
         <v>332</v>
       </c>
       <c r="C334">
-        <v>0.182567</v>
+        <v>0.1791275</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -12150,7 +12150,7 @@
         <v>333</v>
       </c>
       <c r="C335">
-        <v>0.1783434</v>
+        <v>0.1749902</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -12161,7 +12161,7 @@
         <v>334</v>
       </c>
       <c r="C336">
-        <v>0.1742162</v>
+        <v>0.1709593</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -12172,7 +12172,7 @@
         <v>335</v>
       </c>
       <c r="C337">
-        <v>0.170195</v>
+        <v>0.1670432</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -12183,7 +12183,7 @@
         <v>336</v>
       </c>
       <c r="C338">
-        <v>0.1662884</v>
+        <v>0.1632492</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -12194,7 +12194,7 @@
         <v>337</v>
       </c>
       <c r="C339">
-        <v>0.1625038</v>
+        <v>0.1595838</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -12205,7 +12205,7 @@
         <v>338</v>
       </c>
       <c r="C340">
-        <v>0.1588481</v>
+        <v>0.1560524</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -12216,7 +12216,7 @@
         <v>339</v>
       </c>
       <c r="C341">
-        <v>0.1553267</v>
+        <v>0.1526592</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -12227,7 +12227,7 @@
         <v>340</v>
       </c>
       <c r="C342">
-        <v>0.1519442</v>
+        <v>0.1494075</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -12238,7 +12238,7 @@
         <v>341</v>
       </c>
       <c r="C343">
-        <v>0.1487037</v>
+        <v>0.1462995</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -12249,7 +12249,7 @@
         <v>342</v>
       </c>
       <c r="C344">
-        <v>0.1456077</v>
+        <v>0.1433362</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -12260,7 +12260,7 @@
         <v>343</v>
       </c>
       <c r="C345">
-        <v>0.1426573</v>
+        <v>0.140518</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -12271,7 +12271,7 @@
         <v>344</v>
       </c>
       <c r="C346">
-        <v>0.1398527</v>
+        <v>0.137844</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -12282,7 +12282,7 @@
         <v>345</v>
       </c>
       <c r="C347">
-        <v>0.1371931</v>
+        <v>0.1353126</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -12293,7 +12293,7 @@
         <v>346</v>
       </c>
       <c r="C348">
-        <v>0.1346769</v>
+        <v>0.1329215</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -12304,7 +12304,7 @@
         <v>347</v>
       </c>
       <c r="C349">
-        <v>0.1323017</v>
+        <v>0.1306676</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -12315,7 +12315,7 @@
         <v>348</v>
       </c>
       <c r="C350">
-        <v>0.1300645</v>
+        <v>0.1285473</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -12326,7 +12326,7 @@
         <v>349</v>
       </c>
       <c r="C351">
-        <v>0.1279615</v>
+        <v>0.1265565</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -12337,7 +12337,7 @@
         <v>350</v>
       </c>
       <c r="C352">
-        <v>0.1259886</v>
+        <v>0.1246907</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -12348,7 +12348,7 @@
         <v>351</v>
       </c>
       <c r="C353">
-        <v>0.1241411</v>
+        <v>0.1229451</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -12359,7 +12359,7 @@
         <v>352</v>
       </c>
       <c r="C354">
-        <v>0.1224141</v>
+        <v>0.1213146</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -12370,7 +12370,7 @@
         <v>353</v>
       </c>
       <c r="C355">
-        <v>0.1208025</v>
+        <v>0.1197939</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -12381,7 +12381,7 @@
         <v>354</v>
       </c>
       <c r="C356">
-        <v>0.1193009</v>
+        <v>0.1183778</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -12392,7 +12392,7 @@
         <v>355</v>
       </c>
       <c r="C357">
-        <v>0.1179039</v>
+        <v>0.1170607</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -12403,7 +12403,7 @@
         <v>356</v>
       </c>
       <c r="C358">
-        <v>0.1166061</v>
+        <v>0.1158374</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -12414,7 +12414,7 @@
         <v>357</v>
       </c>
       <c r="C359">
-        <v>0.1154019</v>
+        <v>0.1147026</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -12425,7 +12425,7 @@
         <v>358</v>
       </c>
       <c r="C360">
-        <v>0.114286</v>
+        <v>0.113651</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -12436,7 +12436,7 @@
         <v>359</v>
       </c>
       <c r="C361">
-        <v>0.1132532</v>
+        <v>0.1126776</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -12447,7 +12447,7 @@
         <v>360</v>
       </c>
       <c r="C362">
-        <v>0.1122983</v>
+        <v>0.1117774</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -12458,7 +12458,7 @@
         <v>361</v>
       </c>
       <c r="C363">
-        <v>0.1114163</v>
+        <v>0.1109458</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -12469,7 +12469,7 @@
         <v>362</v>
       </c>
       <c r="C364">
-        <v>0.1106024</v>
+        <v>0.1101781</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -12480,7 +12480,7 @@
         <v>363</v>
       </c>
       <c r="C365">
-        <v>0.109852</v>
+        <v>0.10947</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -12491,7 +12491,7 @@
         <v>364</v>
       </c>
       <c r="C366">
-        <v>0.1091608</v>
+        <v>0.1088173</v>
       </c>
     </row>
   </sheetData>
@@ -14374,7 +14374,7 @@
         <v>168</v>
       </c>
       <c r="C170">
-        <v>0.4565057</v>
+        <v>0.4565058</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -14418,7 +14418,7 @@
         <v>172</v>
       </c>
       <c r="C174">
-        <v>0.4655366</v>
+        <v>0.4655367</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -14440,7 +14440,7 @@
         <v>174</v>
       </c>
       <c r="C176">
-        <v>0.4688905</v>
+        <v>0.4688906</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -14462,7 +14462,7 @@
         <v>176</v>
       </c>
       <c r="C178">
-        <v>0.4715708</v>
+        <v>0.4715709</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -14484,7 +14484,7 @@
         <v>178</v>
       </c>
       <c r="C180">
-        <v>0.4736562</v>
+        <v>0.4736563</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -14495,7 +14495,7 @@
         <v>179</v>
       </c>
       <c r="C181">
-        <v>0.4745001</v>
+        <v>0.4745002</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -14506,7 +14506,7 @@
         <v>180</v>
       </c>
       <c r="C182">
-        <v>0.4752242</v>
+        <v>0.4752244</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -14517,7 +14517,7 @@
         <v>181</v>
       </c>
       <c r="C183">
-        <v>0.4758376</v>
+        <v>0.4758377</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -14528,7 +14528,7 @@
         <v>182</v>
       </c>
       <c r="C184">
-        <v>0.476349</v>
+        <v>0.4763492</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -14539,7 +14539,7 @@
         <v>183</v>
       </c>
       <c r="C185">
-        <v>0.4767671</v>
+        <v>0.4767673</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -14550,7 +14550,7 @@
         <v>184</v>
       </c>
       <c r="C186">
-        <v>0.4770997</v>
+        <v>0.4770999</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -14561,7 +14561,7 @@
         <v>185</v>
       </c>
       <c r="C187">
-        <v>0.4773546</v>
+        <v>0.4773549</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -14572,7 +14572,7 @@
         <v>186</v>
       </c>
       <c r="C188">
-        <v>0.4775389</v>
+        <v>0.4775393</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -14583,7 +14583,7 @@
         <v>187</v>
       </c>
       <c r="C189">
-        <v>0.4776594</v>
+        <v>0.4776599</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -14594,7 +14594,7 @@
         <v>188</v>
       </c>
       <c r="C190">
-        <v>0.4777225</v>
+        <v>0.477723</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -14605,7 +14605,7 @@
         <v>189</v>
       </c>
       <c r="C191">
-        <v>0.477734</v>
+        <v>0.4777346</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -14616,7 +14616,7 @@
         <v>190</v>
       </c>
       <c r="C192">
-        <v>0.4776992</v>
+        <v>0.4776999</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -14627,7 +14627,7 @@
         <v>191</v>
       </c>
       <c r="C193">
-        <v>0.4776232</v>
+        <v>0.477624</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -14638,7 +14638,7 @@
         <v>192</v>
       </c>
       <c r="C194">
-        <v>0.4775105</v>
+        <v>0.4775114</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -14649,7 +14649,7 @@
         <v>193</v>
       </c>
       <c r="C195">
-        <v>0.4773652</v>
+        <v>0.4773663</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -14660,7 +14660,7 @@
         <v>194</v>
       </c>
       <c r="C196">
-        <v>0.4771911</v>
+        <v>0.4771923</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -14671,7 +14671,7 @@
         <v>195</v>
       </c>
       <c r="C197">
-        <v>0.4769913</v>
+        <v>0.4769927</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -14682,7 +14682,7 @@
         <v>196</v>
       </c>
       <c r="C198">
-        <v>0.4767689</v>
+        <v>0.4767705</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -14693,7 +14693,7 @@
         <v>197</v>
       </c>
       <c r="C199">
-        <v>0.4765264</v>
+        <v>0.4765283</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -14704,7 +14704,7 @@
         <v>198</v>
       </c>
       <c r="C200">
-        <v>0.4762662</v>
+        <v>0.4762683</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -14715,7 +14715,7 @@
         <v>199</v>
       </c>
       <c r="C201">
-        <v>0.47599</v>
+        <v>0.4759925</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -14726,7 +14726,7 @@
         <v>200</v>
       </c>
       <c r="C202">
-        <v>0.4756995</v>
+        <v>0.4757024</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -14737,7 +14737,7 @@
         <v>201</v>
       </c>
       <c r="C203">
-        <v>0.4753961</v>
+        <v>0.4753993</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -14748,7 +14748,7 @@
         <v>202</v>
       </c>
       <c r="C204">
-        <v>0.4750807</v>
+        <v>0.4750844</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -14759,7 +14759,7 @@
         <v>203</v>
       </c>
       <c r="C205">
-        <v>0.4747542</v>
+        <v>0.4747585</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -14770,7 +14770,7 @@
         <v>204</v>
       </c>
       <c r="C206">
-        <v>0.4744171</v>
+        <v>0.474422</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -14781,7 +14781,7 @@
         <v>205</v>
       </c>
       <c r="C207">
-        <v>0.4740697</v>
+        <v>0.4740753</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -14792,7 +14792,7 @@
         <v>206</v>
       </c>
       <c r="C208">
-        <v>0.4737122</v>
+        <v>0.4737186</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -14803,7 +14803,7 @@
         <v>207</v>
       </c>
       <c r="C209">
-        <v>0.4733445</v>
+        <v>0.4733518</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -14814,7 +14814,7 @@
         <v>208</v>
       </c>
       <c r="C210">
-        <v>0.4729664</v>
+        <v>0.4729746</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -14825,7 +14825,7 @@
         <v>209</v>
       </c>
       <c r="C211">
-        <v>0.4725773</v>
+        <v>0.4725867</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -14836,7 +14836,7 @@
         <v>210</v>
       </c>
       <c r="C212">
-        <v>0.4721769</v>
+        <v>0.4721875</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -14847,7 +14847,7 @@
         <v>211</v>
       </c>
       <c r="C213">
-        <v>0.4717643</v>
+        <v>0.4717763</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -14858,7 +14858,7 @@
         <v>212</v>
       </c>
       <c r="C214">
-        <v>0.4713387</v>
+        <v>0.4713523</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -14869,7 +14869,7 @@
         <v>213</v>
       </c>
       <c r="C215">
-        <v>0.4708991</v>
+        <v>0.4709145</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -14880,7 +14880,7 @@
         <v>214</v>
       </c>
       <c r="C216">
-        <v>0.4704446</v>
+        <v>0.470462</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -14891,7 +14891,7 @@
         <v>215</v>
       </c>
       <c r="C217">
-        <v>0.469974</v>
+        <v>0.4699936</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -14902,7 +14902,7 @@
         <v>216</v>
       </c>
       <c r="C218">
-        <v>0.469486</v>
+        <v>0.469508</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -14913,7 +14913,7 @@
         <v>217</v>
       </c>
       <c r="C219">
-        <v>0.4689792</v>
+        <v>0.469004</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -14924,7 +14924,7 @@
         <v>218</v>
       </c>
       <c r="C220">
-        <v>0.4684525</v>
+        <v>0.4684803</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -14935,7 +14935,7 @@
         <v>219</v>
       </c>
       <c r="C221">
-        <v>0.4679042</v>
+        <v>0.4679354</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -14946,7 +14946,7 @@
         <v>220</v>
       </c>
       <c r="C222">
-        <v>0.4673331</v>
+        <v>0.467368</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -14957,7 +14957,7 @@
         <v>221</v>
       </c>
       <c r="C223">
-        <v>0.4667375</v>
+        <v>0.4667765</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -14968,7 +14968,7 @@
         <v>222</v>
       </c>
       <c r="C224">
-        <v>0.4661159</v>
+        <v>0.4661595</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -14979,7 +14979,7 @@
         <v>223</v>
       </c>
       <c r="C225">
-        <v>0.4654668</v>
+        <v>0.4655155</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -14990,7 +14990,7 @@
         <v>224</v>
       </c>
       <c r="C226">
-        <v>0.4647888</v>
+        <v>0.4648429</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -15001,7 +15001,7 @@
         <v>225</v>
       </c>
       <c r="C227">
-        <v>0.4640801</v>
+        <v>0.4641403</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -15012,7 +15012,7 @@
         <v>226</v>
       </c>
       <c r="C228">
-        <v>0.4633394</v>
+        <v>0.4634062</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -15023,7 +15023,7 @@
         <v>227</v>
       </c>
       <c r="C229">
-        <v>0.4625651</v>
+        <v>0.4626392</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -15034,7 +15034,7 @@
         <v>228</v>
       </c>
       <c r="C230">
-        <v>0.4617558</v>
+        <v>0.4618378</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -15045,7 +15045,7 @@
         <v>229</v>
       </c>
       <c r="C231">
-        <v>0.4609101</v>
+        <v>0.4610007</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -15056,7 +15056,7 @@
         <v>230</v>
       </c>
       <c r="C232">
-        <v>0.4600266</v>
+        <v>0.4601266</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -15067,7 +15067,7 @@
         <v>231</v>
       </c>
       <c r="C233">
-        <v>0.459104</v>
+        <v>0.4592142</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -15078,7 +15078,7 @@
         <v>232</v>
       </c>
       <c r="C234">
-        <v>0.4581412</v>
+        <v>0.4582624</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -15089,7 +15089,7 @@
         <v>233</v>
       </c>
       <c r="C235">
-        <v>0.457137</v>
+        <v>0.45727</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -15100,7 +15100,7 @@
         <v>234</v>
       </c>
       <c r="C236">
-        <v>0.4560903</v>
+        <v>0.4562361</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -15111,7 +15111,7 @@
         <v>235</v>
       </c>
       <c r="C237">
-        <v>0.4550002</v>
+        <v>0.4551598</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -15122,7 +15122,7 @@
         <v>236</v>
       </c>
       <c r="C238">
-        <v>0.453866</v>
+        <v>0.4540403</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -15133,7 +15133,7 @@
         <v>237</v>
       </c>
       <c r="C239">
-        <v>0.4526868</v>
+        <v>0.4528768</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -15144,7 +15144,7 @@
         <v>238</v>
       </c>
       <c r="C240">
-        <v>0.4514621</v>
+        <v>0.4516689</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -15155,7 +15155,7 @@
         <v>239</v>
       </c>
       <c r="C241">
-        <v>0.4501914</v>
+        <v>0.4504161</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -15166,7 +15166,7 @@
         <v>240</v>
       </c>
       <c r="C242">
-        <v>0.4488743</v>
+        <v>0.449118</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -15177,7 +15177,7 @@
         <v>241</v>
       </c>
       <c r="C243">
-        <v>0.4475107</v>
+        <v>0.4477745</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -15188,7 +15188,7 @@
         <v>242</v>
       </c>
       <c r="C244">
-        <v>0.4461006</v>
+        <v>0.4463855</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -15199,7 +15199,7 @@
         <v>243</v>
       </c>
       <c r="C245">
-        <v>0.4446438</v>
+        <v>0.444951</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -15210,7 +15210,7 @@
         <v>244</v>
       </c>
       <c r="C246">
-        <v>0.4431408</v>
+        <v>0.4434713</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -15221,7 +15221,7 @@
         <v>245</v>
       </c>
       <c r="C247">
-        <v>0.4415917</v>
+        <v>0.4419466</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -15232,7 +15232,7 @@
         <v>246</v>
       </c>
       <c r="C248">
-        <v>0.4399971</v>
+        <v>0.4403774</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -15243,7 +15243,7 @@
         <v>247</v>
       </c>
       <c r="C249">
-        <v>0.4383576</v>
+        <v>0.4387642</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -15254,7 +15254,7 @@
         <v>248</v>
       </c>
       <c r="C250">
-        <v>0.4366738</v>
+        <v>0.4371078</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -15265,7 +15265,7 @@
         <v>249</v>
       </c>
       <c r="C251">
-        <v>0.4349466</v>
+        <v>0.4354087</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -15276,7 +15276,7 @@
         <v>250</v>
       </c>
       <c r="C252">
-        <v>0.433177</v>
+        <v>0.433668</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -15287,7 +15287,7 @@
         <v>251</v>
       </c>
       <c r="C253">
-        <v>0.431366</v>
+        <v>0.4318865</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -15298,7 +15298,7 @@
         <v>252</v>
       </c>
       <c r="C254">
-        <v>0.4295147</v>
+        <v>0.4300652</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -15309,7 +15309,7 @@
         <v>253</v>
       </c>
       <c r="C255">
-        <v>0.4276242</v>
+        <v>0.4282052</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -15320,7 +15320,7 @@
         <v>254</v>
       </c>
       <c r="C256">
-        <v>0.4256959</v>
+        <v>0.4263076</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -15331,7 +15331,7 @@
         <v>255</v>
       </c>
       <c r="C257">
-        <v>0.4237311</v>
+        <v>0.4243736</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -15342,7 +15342,7 @@
         <v>256</v>
       </c>
       <c r="C258">
-        <v>0.421731</v>
+        <v>0.4224043</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -15353,7 +15353,7 @@
         <v>257</v>
       </c>
       <c r="C259">
-        <v>0.419697</v>
+        <v>0.4204009</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -15364,7 +15364,7 @@
         <v>258</v>
       </c>
       <c r="C260">
-        <v>0.4176306</v>
+        <v>0.4183645</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -15375,7 +15375,7 @@
         <v>259</v>
       </c>
       <c r="C261">
-        <v>0.4155329</v>
+        <v>0.4162963</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -15386,7 +15386,7 @@
         <v>260</v>
       </c>
       <c r="C262">
-        <v>0.4134054</v>
+        <v>0.4141974</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -15397,7 +15397,7 @@
         <v>261</v>
       </c>
       <c r="C263">
-        <v>0.4112492</v>
+        <v>0.4120688</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -15408,7 +15408,7 @@
         <v>262</v>
       </c>
       <c r="C264">
-        <v>0.4090658</v>
+        <v>0.4099115</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -15419,7 +15419,7 @@
         <v>263</v>
       </c>
       <c r="C265">
-        <v>0.4068561</v>
+        <v>0.4077264</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -15430,7 +15430,7 @@
         <v>264</v>
       </c>
       <c r="C266">
-        <v>0.4046213</v>
+        <v>0.4055143</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -15441,7 +15441,7 @@
         <v>265</v>
       </c>
       <c r="C267">
-        <v>0.4023623</v>
+        <v>0.403276</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -15452,7 +15452,7 @@
         <v>266</v>
       </c>
       <c r="C268">
-        <v>0.4000801</v>
+        <v>0.4010121</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -15463,7 +15463,7 @@
         <v>267</v>
       </c>
       <c r="C269">
-        <v>0.3977754</v>
+        <v>0.398723</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -15474,7 +15474,7 @@
         <v>268</v>
       </c>
       <c r="C270">
-        <v>0.3954489</v>
+        <v>0.3964093</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -15485,7 +15485,7 @@
         <v>269</v>
       </c>
       <c r="C271">
-        <v>0.3931011</v>
+        <v>0.394071</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -15496,7 +15496,7 @@
         <v>270</v>
       </c>
       <c r="C272">
-        <v>0.3907324</v>
+        <v>0.3917084</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -15507,7 +15507,7 @@
         <v>271</v>
       </c>
       <c r="C273">
-        <v>0.3883432</v>
+        <v>0.3893214</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -15518,7 +15518,7 @@
         <v>272</v>
       </c>
       <c r="C274">
-        <v>0.3859334</v>
+        <v>0.3869099</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -15529,7 +15529,7 @@
         <v>273</v>
       </c>
       <c r="C275">
-        <v>0.3835032</v>
+        <v>0.3844736</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -15540,7 +15540,7 @@
         <v>274</v>
       </c>
       <c r="C276">
-        <v>0.3810524</v>
+        <v>0.3820121</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -15551,7 +15551,7 @@
         <v>275</v>
       </c>
       <c r="C277">
-        <v>0.3785806</v>
+        <v>0.3795249</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -15562,7 +15562,7 @@
         <v>276</v>
       </c>
       <c r="C278">
-        <v>0.3760875</v>
+        <v>0.3770112</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -15573,7 +15573,7 @@
         <v>277</v>
       </c>
       <c r="C279">
-        <v>0.3735726</v>
+        <v>0.3744703</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -15584,7 +15584,7 @@
         <v>278</v>
       </c>
       <c r="C280">
-        <v>0.371035</v>
+        <v>0.3719012</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -15595,7 +15595,7 @@
         <v>279</v>
       </c>
       <c r="C281">
-        <v>0.3684739</v>
+        <v>0.3693029</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -15606,7 +15606,7 @@
         <v>280</v>
       </c>
       <c r="C282">
-        <v>0.3658884</v>
+        <v>0.3666741</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -15617,7 +15617,7 @@
         <v>281</v>
       </c>
       <c r="C283">
-        <v>0.3632775</v>
+        <v>0.3640136</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -15628,7 +15628,7 @@
         <v>282</v>
       </c>
       <c r="C284">
-        <v>0.3606398</v>
+        <v>0.36132</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -15639,7 +15639,7 @@
         <v>283</v>
       </c>
       <c r="C285">
-        <v>0.357974</v>
+        <v>0.3585918</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -15650,7 +15650,7 @@
         <v>284</v>
       </c>
       <c r="C286">
-        <v>0.3552788</v>
+        <v>0.3558274</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -15661,7 +15661,7 @@
         <v>285</v>
       </c>
       <c r="C287">
-        <v>0.3525525</v>
+        <v>0.3530251</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -15672,7 +15672,7 @@
         <v>286</v>
       </c>
       <c r="C288">
-        <v>0.3497935</v>
+        <v>0.3501831</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -15683,7 +15683,7 @@
         <v>287</v>
       </c>
       <c r="C289">
-        <v>0.3470001</v>
+        <v>0.3472998</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -15694,7 +15694,7 @@
         <v>288</v>
       </c>
       <c r="C290">
-        <v>0.3441703</v>
+        <v>0.3443731</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -15705,7 +15705,7 @@
         <v>289</v>
       </c>
       <c r="C291">
-        <v>0.3413024</v>
+        <v>0.3414011</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -15716,7 +15716,7 @@
         <v>290</v>
       </c>
       <c r="C292">
-        <v>0.3383942</v>
+        <v>0.3383818</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -15727,7 +15727,7 @@
         <v>291</v>
       </c>
       <c r="C293">
-        <v>0.3354438</v>
+        <v>0.3353132</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -15738,7 +15738,7 @@
         <v>292</v>
       </c>
       <c r="C294">
-        <v>0.332449</v>
+        <v>0.3321934</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -15749,7 +15749,7 @@
         <v>293</v>
       </c>
       <c r="C295">
-        <v>0.3294077</v>
+        <v>0.3290202</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -15760,7 +15760,7 @@
         <v>294</v>
       </c>
       <c r="C296">
-        <v>0.3263176</v>
+        <v>0.3257915</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -15771,7 +15771,7 @@
         <v>295</v>
       </c>
       <c r="C297">
-        <v>0.3231766</v>
+        <v>0.3225055</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -15782,7 +15782,7 @@
         <v>296</v>
       </c>
       <c r="C298">
-        <v>0.3199825</v>
+        <v>0.3191602</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -15793,7 +15793,7 @@
         <v>297</v>
       </c>
       <c r="C299">
-        <v>0.316733</v>
+        <v>0.3157536</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -15804,7 +15804,7 @@
         <v>298</v>
       </c>
       <c r="C300">
-        <v>0.313426</v>
+        <v>0.3122839</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -15815,7 +15815,7 @@
         <v>299</v>
       </c>
       <c r="C301">
-        <v>0.3100594</v>
+        <v>0.3087495</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -15826,7 +15826,7 @@
         <v>300</v>
       </c>
       <c r="C302">
-        <v>0.3066312</v>
+        <v>0.3051489</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -15837,7 +15837,7 @@
         <v>301</v>
       </c>
       <c r="C303">
-        <v>0.3031395</v>
+        <v>0.3014806</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -15848,7 +15848,7 @@
         <v>302</v>
       </c>
       <c r="C304">
-        <v>0.2995825</v>
+        <v>0.2977435</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -15859,7 +15859,7 @@
         <v>303</v>
       </c>
       <c r="C305">
-        <v>0.2959588</v>
+        <v>0.2939368</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -15870,7 +15870,7 @@
         <v>304</v>
       </c>
       <c r="C306">
-        <v>0.2922669</v>
+        <v>0.2900598</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -15881,7 +15881,7 @@
         <v>305</v>
       </c>
       <c r="C307">
-        <v>0.2885059</v>
+        <v>0.2861122</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -15892,7 +15892,7 @@
         <v>306</v>
       </c>
       <c r="C308">
-        <v>0.2846749</v>
+        <v>0.2820943</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -15903,7 +15903,7 @@
         <v>307</v>
       </c>
       <c r="C309">
-        <v>0.2807737</v>
+        <v>0.2780066</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -15914,7 +15914,7 @@
         <v>308</v>
       </c>
       <c r="C310">
-        <v>0.2768022</v>
+        <v>0.2738501</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -15925,7 +15925,7 @@
         <v>309</v>
       </c>
       <c r="C311">
-        <v>0.272761</v>
+        <v>0.2696263</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -15936,7 +15936,7 @@
         <v>310</v>
       </c>
       <c r="C312">
-        <v>0.268651</v>
+        <v>0.2653375</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -15947,7 +15947,7 @@
         <v>311</v>
       </c>
       <c r="C313">
-        <v>0.2644739</v>
+        <v>0.2609864</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -15958,7 +15958,7 @@
         <v>312</v>
       </c>
       <c r="C314">
-        <v>0.260232</v>
+        <v>0.2565764</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -15969,7 +15969,7 @@
         <v>313</v>
       </c>
       <c r="C315">
-        <v>0.255928</v>
+        <v>0.2521117</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -15980,7 +15980,7 @@
         <v>314</v>
       </c>
       <c r="C316">
-        <v>0.2515656</v>
+        <v>0.247597</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -15991,7 +15991,7 @@
         <v>315</v>
       </c>
       <c r="C317">
-        <v>0.2471492</v>
+        <v>0.243038</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -16002,7 +16002,7 @@
         <v>316</v>
       </c>
       <c r="C318">
-        <v>0.2426838</v>
+        <v>0.238441</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -16013,7 +16013,7 @@
         <v>317</v>
       </c>
       <c r="C319">
-        <v>0.2381754</v>
+        <v>0.233813</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -16024,7 +16024,7 @@
         <v>318</v>
       </c>
       <c r="C320">
-        <v>0.2336305</v>
+        <v>0.2291617</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -16035,7 +16035,7 @@
         <v>319</v>
       </c>
       <c r="C321">
-        <v>0.2290566</v>
+        <v>0.2244957</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -16046,7 +16046,7 @@
         <v>320</v>
       </c>
       <c r="C322">
-        <v>0.224462</v>
+        <v>0.219824</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -16057,7 +16057,7 @@
         <v>321</v>
       </c>
       <c r="C323">
-        <v>0.2198553</v>
+        <v>0.2151562</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -16068,7 +16068,7 @@
         <v>322</v>
       </c>
       <c r="C324">
-        <v>0.215246</v>
+        <v>0.2105023</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -16079,7 +16079,7 @@
         <v>323</v>
       </c>
       <c r="C325">
-        <v>0.2106442</v>
+        <v>0.205873</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -16090,7 +16090,7 @@
         <v>324</v>
       </c>
       <c r="C326">
-        <v>0.2060604</v>
+        <v>0.2012788</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -16101,7 +16101,7 @@
         <v>325</v>
       </c>
       <c r="C327">
-        <v>0.2015052</v>
+        <v>0.1967307</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -16112,7 +16112,7 @@
         <v>326</v>
       </c>
       <c r="C328">
-        <v>0.1969896</v>
+        <v>0.1922396</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -16123,7 +16123,7 @@
         <v>327</v>
       </c>
       <c r="C329">
-        <v>0.1925248</v>
+        <v>0.1878161</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -16134,7 +16134,7 @@
         <v>328</v>
       </c>
       <c r="C330">
-        <v>0.1881217</v>
+        <v>0.1834707</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -16145,7 +16145,7 @@
         <v>329</v>
       </c>
       <c r="C331">
-        <v>0.183791</v>
+        <v>0.1792136</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -16156,7 +16156,7 @@
         <v>330</v>
       </c>
       <c r="C332">
-        <v>0.1795432</v>
+        <v>0.1750542</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -16167,7 +16167,7 @@
         <v>331</v>
       </c>
       <c r="C333">
-        <v>0.1753882</v>
+        <v>0.1710015</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -16178,7 +16178,7 @@
         <v>332</v>
       </c>
       <c r="C334">
-        <v>0.1713353</v>
+        <v>0.1670635</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -16189,7 +16189,7 @@
         <v>333</v>
       </c>
       <c r="C335">
-        <v>0.1673932</v>
+        <v>0.1632475</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -16200,7 +16200,7 @@
         <v>334</v>
       </c>
       <c r="C336">
-        <v>0.1635694</v>
+        <v>0.1595599</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -16211,7 +16211,7 @@
         <v>335</v>
       </c>
       <c r="C337">
-        <v>0.159871</v>
+        <v>0.156006</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -16222,7 +16222,7 @@
         <v>336</v>
       </c>
       <c r="C338">
-        <v>0.1563036</v>
+        <v>0.1525903</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -16233,7 +16233,7 @@
         <v>337</v>
       </c>
       <c r="C339">
-        <v>0.1528721</v>
+        <v>0.1493159</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -16244,7 +16244,7 @@
         <v>338</v>
       </c>
       <c r="C340">
-        <v>0.1495803</v>
+        <v>0.1461853</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -16255,7 +16255,7 @@
         <v>339</v>
       </c>
       <c r="C341">
-        <v>0.1464309</v>
+        <v>0.1431998</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -16266,7 +16266,7 @@
         <v>340</v>
       </c>
       <c r="C342">
-        <v>0.1434256</v>
+        <v>0.1403596</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -16277,7 +16277,7 @@
         <v>341</v>
       </c>
       <c r="C343">
-        <v>0.1405652</v>
+        <v>0.1376643</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -16288,7 +16288,7 @@
         <v>342</v>
       </c>
       <c r="C344">
-        <v>0.1378494</v>
+        <v>0.1351125</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -16299,7 +16299,7 @@
         <v>343</v>
       </c>
       <c r="C345">
-        <v>0.1352771</v>
+        <v>0.1327019</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -16310,7 +16310,7 @@
         <v>344</v>
       </c>
       <c r="C346">
-        <v>0.1328463</v>
+        <v>0.1304298</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -16321,7 +16321,7 @@
         <v>345</v>
       </c>
       <c r="C347">
-        <v>0.1305546</v>
+        <v>0.1282927</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -16332,7 +16332,7 @@
         <v>346</v>
       </c>
       <c r="C348">
-        <v>0.1283986</v>
+        <v>0.1262867</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -16343,7 +16343,7 @@
         <v>347</v>
       </c>
       <c r="C349">
-        <v>0.1263744</v>
+        <v>0.1244073</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -16354,7 +16354,7 @@
         <v>348</v>
       </c>
       <c r="C350">
-        <v>0.1244779</v>
+        <v>0.1226498</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -16365,7 +16365,7 @@
         <v>349</v>
       </c>
       <c r="C351">
-        <v>0.1227044</v>
+        <v>0.1210093</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -16376,7 +16376,7 @@
         <v>350</v>
       </c>
       <c r="C352">
-        <v>0.1210489</v>
+        <v>0.1194804</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -16387,7 +16387,7 @@
         <v>351</v>
       </c>
       <c r="C353">
-        <v>0.1195062</v>
+        <v>0.1180579</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -16398,7 +16398,7 @@
         <v>352</v>
       </c>
       <c r="C354">
-        <v>0.1180711</v>
+        <v>0.1167364</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -16409,7 +16409,7 @@
         <v>353</v>
       </c>
       <c r="C355">
-        <v>0.1167381</v>
+        <v>0.1155105</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -16420,7 +16420,7 @@
         <v>354</v>
       </c>
       <c r="C356">
-        <v>0.1155019</v>
+        <v>0.1143748</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -16431,7 +16431,7 @@
         <v>355</v>
       </c>
       <c r="C357">
-        <v>0.114357</v>
+        <v>0.113324</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -16442,7 +16442,7 @@
         <v>356</v>
       </c>
       <c r="C358">
-        <v>0.1132981</v>
+        <v>0.112353</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -16453,7 +16453,7 @@
         <v>357</v>
       </c>
       <c r="C359">
-        <v>0.1123199</v>
+        <v>0.1114566</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -16464,7 +16464,7 @@
         <v>358</v>
       </c>
       <c r="C360">
-        <v>0.1114175</v>
+        <v>0.1106302</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -16475,7 +16475,7 @@
         <v>359</v>
       </c>
       <c r="C361">
-        <v>0.1105859</v>
+        <v>0.109869</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -16486,7 +16486,7 @@
         <v>360</v>
       </c>
       <c r="C362">
-        <v>0.1098203</v>
+        <v>0.1091684</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -16497,7 +16497,7 @@
         <v>361</v>
       </c>
       <c r="C363">
-        <v>0.1091162</v>
+        <v>0.1085244</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -16508,7 +16508,7 @@
         <v>362</v>
       </c>
       <c r="C364">
-        <v>0.1084693</v>
+        <v>0.1079327</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -16519,7 +16519,7 @@
         <v>363</v>
       </c>
       <c r="C365">
-        <v>0.1078754</v>
+        <v>0.1073896</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -16530,7 +16530,7 @@
         <v>364</v>
       </c>
       <c r="C366">
-        <v>0.1073307</v>
+        <v>0.1068914</v>
       </c>
     </row>
   </sheetData>
